--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\salvatore\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D44878A3-3F3D-441E-9A9E-E9753FE0CF5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33633F53-6B9B-4CE7-A72F-6AA55EB23586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" firstSheet="1" activeTab="7" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="3300" yWindow="2470" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="409">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1883,6 +1883,84 @@
       </rPr>
       <t>Wolverine #87</t>
     </r>
+  </si>
+  <si>
+    <t>X-Men: Search for Cyclops</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men # 133 (Panini Comics)</t>
+  </si>
+  <si>
+    <t>Manca X-Men 134</t>
+  </si>
+  <si>
+    <t>Bishop: The Last X-Men</t>
+  </si>
+  <si>
+    <t>#15</t>
+  </si>
+  <si>
+    <t>Mancano primi 14 numeri - Inediti in Italia</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 133</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #95</t>
+  </si>
+  <si>
+    <t>incredibili X-Men #95</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men # 107</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #98</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #84</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #97</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men da #97 a #98</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #91</t>
+  </si>
+  <si>
+    <t>Onslaught: Epilogue</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 123</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 106</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 122</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #122</t>
+  </si>
+  <si>
+    <t>Wolverine vol.2 Annual #1</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 80</t>
+  </si>
+  <si>
+    <t>Storia 15 pp</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 87</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #87</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men 124</t>
   </si>
 </sst>
 </file>
@@ -2122,7 +2200,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2156,6 +2234,7 @@
     <xf numFmtId="17" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="17" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Collegamento ipertestuale" xfId="1" builtinId="8"/>
@@ -3627,10 +3706,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C73E41-C83A-4DCB-A6D9-44866E58ABBC}">
-  <dimension ref="A10:G39"/>
+  <dimension ref="A10:G44"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -4017,7 +4096,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" ht="23.5">
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="23.5">
       <c r="A33" s="13" t="s">
         <v>192</v>
       </c>
@@ -4032,7 +4111,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" ht="23.5">
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="23.5">
       <c r="A34" s="13" t="s">
         <v>75</v>
       </c>
@@ -4047,7 +4126,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="23.5">
+    <row r="35" spans="1:7" ht="23.5">
       <c r="A35" s="13" t="s">
         <v>223</v>
       </c>
@@ -4061,9 +4140,9 @@
         <v>224</v>
       </c>
     </row>
-    <row r="36" spans="1:6" ht="23.5">
+    <row r="36" spans="1:7" ht="23.5">
       <c r="A36" s="13" t="s">
-        <v>225</v>
+        <v>403</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
@@ -4071,64 +4150,137 @@
       <c r="D36" s="26">
         <v>34973</v>
       </c>
+      <c r="E36" s="16"/>
       <c r="F36" s="14" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="23.5">
+        <v>404</v>
+      </c>
+      <c r="G36" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="23.5">
       <c r="A37" s="13" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C37" s="14">
         <v>1</v>
       </c>
       <c r="D37" s="26">
-        <v>35004</v>
+        <v>34973</v>
       </c>
       <c r="F37" s="14" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="23.5">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" ht="23.5">
       <c r="A38" s="13" t="s">
-        <v>354</v>
+        <v>315</v>
       </c>
       <c r="C38" s="14">
         <v>1</v>
       </c>
       <c r="D38" s="26">
-        <v>35034</v>
+        <v>35004</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="23.5">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" ht="23.5">
       <c r="A39" s="13" t="s">
-        <v>146</v>
+        <v>354</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
       </c>
-      <c r="D39" s="14">
+      <c r="D39" s="26">
+        <v>35034</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" ht="23.5">
+      <c r="A40" s="13" t="s">
+        <v>398</v>
+      </c>
+      <c r="C40" s="14">
+        <v>1</v>
+      </c>
+      <c r="D40" s="26">
+        <v>35462</v>
+      </c>
+      <c r="E40" s="12"/>
+      <c r="F40" s="14" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="23.5">
+      <c r="A42" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="C42" s="14">
+        <v>4</v>
+      </c>
+      <c r="D42" s="26">
+        <v>36739</v>
+      </c>
+      <c r="E42" s="16"/>
+      <c r="F42" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G42" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="13" t="s">
+        <v>386</v>
+      </c>
+      <c r="C43" t="s">
+        <v>387</v>
+      </c>
+      <c r="D43" s="31">
+        <v>36861</v>
+      </c>
+      <c r="E43" s="16"/>
+      <c r="F43" s="9" t="s">
+        <v>384</v>
+      </c>
+      <c r="G43" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="23.5">
+      <c r="A44" s="13" t="s">
+        <v>146</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="14">
         <v>2014</v>
       </c>
-      <c r="E39" s="12"/>
-      <c r="F39" s="14" t="s">
+      <c r="E44" s="12"/>
+      <c r="F44" s="14" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="F42" r:id="rId1" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{343589AC-BD2F-4CF0-BF97-73F2F95F5465}"/>
+    <hyperlink ref="F43" r:id="rId2" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{69BF8C69-B37C-4181-8AC8-CB7101FEA86E}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
-  <dimension ref="A4:D59"/>
+  <dimension ref="A4:D64"/>
   <sheetViews>
-    <sheetView topLeftCell="A41" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D66" sqref="D66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4225,388 +4377,443 @@
     </row>
     <row r="24" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B24" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C24" s="7">
-        <v>66</v>
+        <v>-1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>93</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B25" s="7">
-        <v>54</v>
+        <v>1</v>
       </c>
       <c r="C25" s="7">
         <v>66</v>
       </c>
       <c r="D25" s="7" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B26" s="7">
+        <v>54</v>
+      </c>
+      <c r="C26" s="7">
+        <v>66</v>
+      </c>
+      <c r="D26" s="7" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="20" customFormat="1"/>
-    <row r="27" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B27" s="7">
-        <v>94</v>
-      </c>
-      <c r="C27" s="7">
-        <v>131</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>97</v>
-      </c>
-    </row>
+    <row r="27" spans="1:4" s="20" customFormat="1"/>
     <row r="28" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B28" s="7">
-        <v>132</v>
+        <v>94</v>
       </c>
       <c r="C28" s="7">
-        <v>158</v>
+        <v>131</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
     </row>
     <row r="29" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B29" s="7">
-        <v>159</v>
+        <v>132</v>
       </c>
       <c r="C29" s="7">
-        <v>175</v>
+        <v>158</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>135</v>
+        <v>108</v>
       </c>
     </row>
     <row r="30" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B30" s="7">
+        <v>159</v>
+      </c>
+      <c r="C30" s="7">
+        <v>175</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B31" s="7">
         <v>176</v>
       </c>
-      <c r="C30" s="7">
+      <c r="C31" s="7">
         <v>193</v>
       </c>
-      <c r="D30" s="7" t="s">
+      <c r="D31" s="7" t="s">
         <v>150</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="21">
-      <c r="B31" s="7">
-        <v>194</v>
-      </c>
-      <c r="C31" s="7">
-        <v>243</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="21">
       <c r="B32" s="7">
-        <v>244</v>
+        <v>194</v>
       </c>
       <c r="C32" s="7">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="2:4" ht="21">
       <c r="B33" s="7">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="C33" s="7">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D33" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="2:4" ht="21">
       <c r="B34" s="7">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C34" s="7">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="D34" s="7" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="35" spans="2:4" ht="21">
       <c r="B35" s="7">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="C35" s="7">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="D35" s="7" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="36" spans="2:4" ht="21">
       <c r="B36" s="7">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="C36" s="7">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="37" spans="2:4" ht="21">
       <c r="B37" s="7">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="C37" s="7">
-        <v>277</v>
+        <v>272</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="38" spans="2:4" ht="21">
       <c r="B38" s="7">
-        <v>278</v>
+        <v>273</v>
       </c>
       <c r="C38" s="7">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="39" spans="2:4" ht="21">
       <c r="B39" s="7">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="C39" s="7">
-        <v>293</v>
+        <v>280</v>
       </c>
       <c r="D39" s="7" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="40" spans="2:4" ht="21">
       <c r="B40" s="7">
-        <v>294</v>
+        <v>281</v>
       </c>
       <c r="C40" s="7">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>175</v>
+        <v>167</v>
       </c>
     </row>
     <row r="41" spans="2:4" ht="21">
       <c r="B41" s="7">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C41" s="7">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" spans="2:4" ht="21">
       <c r="B42" s="7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C42" s="7">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D42" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="43" spans="2:4" ht="21">
       <c r="B43" s="7">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C43" s="7">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="D43" s="7" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="44" spans="2:4" ht="21">
       <c r="B44" s="7">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="C44" s="7">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D44" s="7" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="45" spans="2:4" ht="21">
       <c r="B45" s="7">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C45" s="7">
-        <v>304</v>
+        <v>300</v>
       </c>
       <c r="D45" s="7" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="46" spans="2:4" ht="21">
       <c r="B46" s="7">
-        <v>305</v>
+        <v>301</v>
       </c>
       <c r="C46" s="7">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="D46" s="7" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="47" spans="2:4" ht="21">
       <c r="B47" s="7">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="C47" s="7">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D47" s="7" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="48" spans="2:4" ht="21">
       <c r="B48" s="7">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="C48" s="7">
-        <v>315</v>
+        <v>307</v>
       </c>
       <c r="D48" s="7" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="49" spans="2:4" ht="21">
       <c r="B49" s="7">
-        <v>316</v>
+        <v>308</v>
       </c>
       <c r="C49" s="7">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
     </row>
     <row r="50" spans="2:4" ht="21">
       <c r="B50" s="7">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="C50" s="7">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="D50" s="7" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="51" spans="2:4" ht="21">
       <c r="B51" s="7">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="C51" s="7">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D51" s="7" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="52" spans="2:4" ht="21">
       <c r="B52" s="7">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="C52" s="7">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D52" s="7" t="s">
-        <v>218</v>
+        <v>208</v>
       </c>
     </row>
     <row r="53" spans="2:4" ht="21">
       <c r="B53" s="7">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="C53" s="7">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="D53" s="7" t="s">
-        <v>343</v>
+        <v>218</v>
       </c>
     </row>
     <row r="54" spans="2:4" ht="21">
       <c r="B54" s="7">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="C54" s="7">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="21">
       <c r="B55" s="7">
+        <v>328</v>
+      </c>
+      <c r="C55" s="7">
+        <v>328</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" ht="21">
+      <c r="B56" s="7">
         <v>329</v>
       </c>
-      <c r="C55" s="7">
+      <c r="C56" s="7">
         <v>329</v>
       </c>
-      <c r="D55" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>346</v>
       </c>
     </row>
-    <row r="56" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B56" s="21">
+    <row r="57" spans="2:4" s="22" customFormat="1" ht="21">
+      <c r="B57" s="21">
         <v>330</v>
       </c>
-      <c r="C56" s="21">
+      <c r="C57" s="21">
         <v>330</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D57" s="21" t="s">
         <v>355</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" ht="21">
-      <c r="B57" s="7">
-        <v>331</v>
-      </c>
-      <c r="C57" s="7">
-        <v>331</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>381</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="21">
       <c r="B58" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="C58" s="7">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>366</v>
+        <v>381</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="21">
       <c r="B59" s="7">
+        <v>332</v>
+      </c>
+      <c r="C59" s="7">
+        <v>332</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" ht="21">
+      <c r="B60" s="7">
         <v>333</v>
       </c>
-      <c r="C59" s="7">
+      <c r="C60" s="7">
         <v>334</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D60" s="7" t="s">
         <v>369</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" ht="21">
+      <c r="B61" s="7">
+        <v>337</v>
+      </c>
+      <c r="C61" s="7">
+        <v>337</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" ht="21">
+      <c r="B62" s="7">
+        <v>356</v>
+      </c>
+      <c r="C62" s="7">
+        <v>357</v>
+      </c>
+      <c r="D62" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" ht="21">
+      <c r="B63" s="7">
+        <v>380</v>
+      </c>
+      <c r="C63" s="7">
+        <v>380</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="21">
+      <c r="B64" s="7">
+        <v>387</v>
+      </c>
+      <c r="C64" s="7">
+        <v>387</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>389</v>
       </c>
     </row>
   </sheetData>
@@ -4619,10 +4826,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
-  <dimension ref="A4:D51"/>
+  <dimension ref="A4:D59"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="D39" sqref="D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4700,283 +4907,359 @@
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="B16" s="7">
-        <v>1</v>
+        <v>-1</v>
       </c>
       <c r="C16" s="7">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>185</v>
+        <v>391</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B17" s="7">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C17" s="7">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B18" s="7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C18" s="7">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D18" s="7" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B19" s="7">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="C19" s="7">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>175</v>
+        <v>187</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B20" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C20" s="7">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>188</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B21" s="7">
+        <v>15</v>
+      </c>
+      <c r="C21" s="7">
+        <v>15</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
+      <c r="B22" s="7">
         <v>16</v>
       </c>
-      <c r="C21" s="7">
+      <c r="C22" s="7">
         <v>16</v>
       </c>
-      <c r="D21" s="7" t="s">
+      <c r="D22" s="7" t="s">
         <v>189</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="21">
-      <c r="B22" s="7">
-        <v>17</v>
-      </c>
-      <c r="C22" s="7">
-        <v>25</v>
-      </c>
-      <c r="D22" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
       <c r="B23" s="7">
-        <v>26</v>
+        <v>17</v>
       </c>
       <c r="C23" s="7">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21">
       <c r="B24" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
     </row>
     <row r="25" spans="2:4" ht="21">
       <c r="B25" s="7">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C25" s="7">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="21">
       <c r="B26" s="7">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C26" s="7">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="21">
       <c r="B27" s="7">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="C27" s="7">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="28" spans="2:4" ht="21">
       <c r="B28" s="7">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C28" s="7">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D28" s="7" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="21">
       <c r="B29" s="7">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C29" s="7">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>219</v>
+        <v>206</v>
       </c>
     </row>
     <row r="30" spans="2:4" ht="21">
       <c r="B30" s="7">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C30" s="7">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D30" s="7" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="21">
       <c r="B31" s="7">
+        <v>40</v>
+      </c>
+      <c r="C31" s="7">
+        <v>41</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4" ht="21">
+      <c r="B32" s="7">
         <v>42</v>
       </c>
-      <c r="C31" s="7">
+      <c r="C32" s="7">
         <v>47</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D32" s="7" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B32" s="23">
+    <row r="33" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B33" s="23">
         <v>48</v>
       </c>
-      <c r="C32" s="23">
+      <c r="C33" s="23">
         <v>52</v>
       </c>
-      <c r="D32" s="23" t="s">
+      <c r="D33" s="23" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="37" spans="1:3" ht="21.5">
-      <c r="A37" s="1" t="s">
+    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B34" s="23"/>
+      <c r="C34" s="23"/>
+      <c r="D34" s="23"/>
+    </row>
+    <row r="35" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B35" s="23">
+        <v>67</v>
+      </c>
+      <c r="C35" s="23">
+        <v>69</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B36" s="23">
+        <v>76</v>
+      </c>
+      <c r="C36" s="23">
+        <v>77</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
+      <c r="D37" s="23"/>
+    </row>
+    <row r="38" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B38" s="23">
+        <v>96</v>
+      </c>
+      <c r="C38" s="23">
+        <v>96</v>
+      </c>
+      <c r="D38" s="23" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B39" s="23">
+        <v>99</v>
+      </c>
+      <c r="C39" s="23">
+        <v>99</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B40" s="23">
+        <v>107</v>
+      </c>
+      <c r="C40" s="23">
+        <v>107</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" ht="21.5">
+      <c r="A45" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="38" spans="1:3">
-      <c r="A38" s="2" t="s">
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
-      <c r="A40" s="8" t="s">
+    <row r="48" spans="1:4">
+      <c r="A48" s="8" t="s">
         <v>304</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="8" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="8" t="s">
         <v>305</v>
       </c>
     </row>
-    <row r="42" spans="1:3">
-      <c r="A42" s="8" t="s">
+    <row r="50" spans="1:4">
+      <c r="A50" s="8" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="43" spans="1:3">
-      <c r="A43" s="8" t="s">
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="44" spans="1:3">
-      <c r="A44" s="8" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="8" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="45" spans="1:3">
-      <c r="A45" s="9" t="s">
+    <row r="53" spans="1:4">
+      <c r="A53" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
-      <c r="A46" s="8" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="7" customFormat="1" ht="21">
-      <c r="B48" s="7" t="s">
+    <row r="56" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B56" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C48" s="7" t="s">
+      <c r="C56" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A49" s="28">
+    <row r="57" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A57" s="28">
         <v>33725</v>
       </c>
-      <c r="B49" s="7">
+      <c r="B57" s="7">
         <v>1</v>
       </c>
-      <c r="C49" s="7">
+      <c r="C57" s="7">
         <v>1</v>
       </c>
-      <c r="D49" s="7" t="s">
+      <c r="D57" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A50" s="28">
+    <row r="58" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A58" s="28">
         <v>34243</v>
       </c>
-      <c r="B50" s="7">
+      <c r="B58" s="7">
         <v>2</v>
       </c>
-      <c r="C50" s="7">
+      <c r="C58" s="7">
         <v>2</v>
       </c>
-      <c r="D50" s="7" t="s">
+      <c r="D58" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="23" customFormat="1" ht="21">
-      <c r="A51" s="30">
+    <row r="59" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A59" s="30">
         <v>34608</v>
       </c>
-      <c r="B51" s="23">
+      <c r="B59" s="23">
         <v>3</v>
       </c>
-      <c r="C51" s="23">
+      <c r="C59" s="23">
         <v>3</v>
       </c>
-      <c r="D51" s="23" t="s">
+      <c r="D59" s="23" t="s">
         <v>309</v>
       </c>
     </row>
@@ -4984,7 +5267,7 @@
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{C4D82E1F-7335-462D-B1D3-80644D45703B}"/>
     <hyperlink ref="C8" r:id="rId2" display="https://www.comicsbox.it/serie/XM_LGY" xr:uid="{DC06B115-7C34-4CE0-B14A-B8840E8C2816}"/>
-    <hyperlink ref="A45" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
+    <hyperlink ref="A53" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5277,10 +5560,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A7413-140D-4E35-BC62-DC846E3AF88F}">
-  <dimension ref="A4:F21"/>
+  <dimension ref="A4:F23"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16:XFD16"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5419,6 +5702,28 @@
       </c>
       <c r="D21" s="7" t="s">
         <v>352</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" ht="21">
+      <c r="B22" s="7">
+        <v>12</v>
+      </c>
+      <c r="C22" s="7">
+        <v>12</v>
+      </c>
+      <c r="D22" s="7" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4" ht="21">
+      <c r="B23" s="7">
+        <v>14</v>
+      </c>
+      <c r="C23" s="7">
+        <v>14</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>397</v>
       </c>
     </row>
   </sheetData>
@@ -6174,10 +6479,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF627E6C-474F-4942-903D-0C9C4B75A390}">
-  <dimension ref="A4:D32"/>
+  <dimension ref="A4:D39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
-      <selection activeCell="G39" sqref="G39"/>
+    <sheetView topLeftCell="A18" zoomScale="224" zoomScaleNormal="224" workbookViewId="0">
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6414,6 +6719,50 @@
         <v>217</v>
       </c>
     </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>101</v>
+      </c>
+      <c r="C34">
+        <v>101</v>
+      </c>
+      <c r="D34" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>115</v>
+      </c>
+      <c r="C36">
+        <v>115</v>
+      </c>
+      <c r="D36" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>117</v>
+      </c>
+      <c r="C38">
+        <v>118</v>
+      </c>
+      <c r="D38" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>146</v>
+      </c>
+      <c r="C39">
+        <v>147</v>
+      </c>
+      <c r="D39" t="s">
+        <v>402</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/personaggio/wolverine" xr:uid="{3EFFEB36-69BB-4F9D-987D-B0AC2348484E}"/>
@@ -6424,10 +6773,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678F1A-8AFC-434A-9739-5C97AFE9725F}">
-  <dimension ref="A4:E57"/>
+  <dimension ref="A4:E59"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D42" sqref="D42"/>
+      <selection activeCell="D45" sqref="D45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6752,114 +7101,137 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.5">
-      <c r="A43" s="1" t="s">
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="21"/>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B42" s="7">
+        <v>67</v>
+      </c>
+      <c r="C42" s="7">
+        <v>67</v>
+      </c>
+      <c r="D42" s="7" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B43" s="7">
+        <v>70</v>
+      </c>
+      <c r="C43" s="7">
+        <v>70</v>
+      </c>
+      <c r="D43" s="7" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="21.5">
+      <c r="A45" s="1" t="s">
         <v>310</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>31</v>
+        <v>305</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>32</v>
+        <v>306</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="9" t="s">
-        <v>2</v>
+      <c r="A51" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="A54" s="28">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="A56" s="28">
         <v>33725</v>
       </c>
-      <c r="B54" s="7">
+      <c r="B56" s="7">
         <v>1</v>
       </c>
-      <c r="C54" s="7">
+      <c r="C56" s="7">
         <v>1</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>311</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A55" s="29">
-        <v>34243</v>
-      </c>
-      <c r="B55" s="21">
-        <v>2</v>
-      </c>
-      <c r="C55" s="21">
-        <v>2</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A56" s="29">
-        <v>34608</v>
-      </c>
-      <c r="B56" s="21">
-        <v>3</v>
-      </c>
-      <c r="C56" s="21">
-        <v>3</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
       <c r="A57" s="29">
+        <v>34243</v>
+      </c>
+      <c r="B57" s="21">
+        <v>2</v>
+      </c>
+      <c r="C57" s="21">
+        <v>2</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A58" s="29">
+        <v>34608</v>
+      </c>
+      <c r="B58" s="21">
+        <v>3</v>
+      </c>
+      <c r="C58" s="21">
+        <v>3</v>
+      </c>
+      <c r="D58" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A59" s="29">
         <v>35034</v>
       </c>
-      <c r="B57" s="21">
+      <c r="B59" s="21">
         <v>1</v>
       </c>
-      <c r="C57" s="21">
+      <c r="C59" s="21">
         <v>1</v>
       </c>
-      <c r="D57" s="21" t="s">
+      <c r="D59" s="21" t="s">
         <v>353</v>
       </c>
-      <c r="E57" s="21" t="s">
+      <c r="E59" s="21" t="s">
         <v>354</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{1A56ADB5-3BCF-4665-BB75-7F35E466119C}"/>
-    <hyperlink ref="A51" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
+    <hyperlink ref="A53" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33633F53-6B9B-4CE7-A72F-6AA55EB23586}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEF9BE-CE88-4E56-B0F0-D8FBBB66276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3300" yWindow="2470" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="10720" yWindow="1460" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="623" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="413">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1665,15 +1665,9 @@
     <t>Marvel Miniserie #29</t>
   </si>
   <si>
-    <t>X-Men Deluxe da #23 a #23</t>
-  </si>
-  <si>
     <t>X-Men Deluxe da #18 a #23 (Marvel Italia)</t>
   </si>
   <si>
-    <t>X-Men Deluxe da #23 a #23 (Marvel Italia)</t>
-  </si>
-  <si>
     <t>Star Magazine #42 Gli Incredibili X-Men #45</t>
   </si>
   <si>
@@ -1690,12 +1684,6 @@
   </si>
   <si>
     <t>X-Force and Cable '95</t>
-  </si>
-  <si>
-    <t>X-Men Deluxe  #24</t>
-  </si>
-  <si>
-    <t>X-Men Deluxe #24</t>
   </si>
   <si>
     <t>X-Men Deluxe #25</t>
@@ -1762,9 +1750,6 @@
   </si>
   <si>
     <t>X-Men Deluxe da #26 a #28</t>
-  </si>
-  <si>
-    <t>X-Men Deluxe da #25 a #28</t>
   </si>
   <si>
     <t>X-Men Deluxe  da #27 a #28</t>
@@ -1858,9 +1843,6 @@
     <t>Manca #1</t>
   </si>
   <si>
-    <t>X-Men Deluxe  #26</t>
-  </si>
-  <si>
     <r>
       <t>Incredibili X-Men da #83 a #84 +</t>
     </r>
@@ -1961,6 +1943,36 @@
   </si>
   <si>
     <t>Incredibili X-Men 124</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #86</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men #86</t>
+  </si>
+  <si>
+    <t>#125 manca prima storia Marvel Mega #8</t>
+  </si>
+  <si>
+    <t>X-Men Deluxe da #23 a #26</t>
+  </si>
+  <si>
+    <t>X-Men Deluxe da #23 a #28 (Marvel Italia)</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #88</t>
+  </si>
+  <si>
+    <t>X-Men Annual '96</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men da #93 a #94</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #94</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #99</t>
   </si>
 </sst>
 </file>
@@ -2803,10 +2815,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>378</v>
+        <v>373</v>
       </c>
       <c r="B17" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="C17">
         <v>1993</v>
@@ -2833,7 +2845,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -2846,7 +2858,7 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" t="s">
-        <v>380</v>
+        <v>375</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3050,23 +3062,23 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
+        <v>354</v>
+      </c>
+      <c r="C7" s="11" t="s">
         <v>358</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>362</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="C8" s="11" t="s">
         <v>359</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3081,7 +3093,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3116,7 +3128,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
@@ -3127,7 +3139,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
     </row>
   </sheetData>
@@ -3706,10 +3718,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C73E41-C83A-4DCB-A6D9-44866E58ABBC}">
-  <dimension ref="A10:G44"/>
+  <dimension ref="A10:G45"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -4142,7 +4154,7 @@
     </row>
     <row r="36" spans="1:7" ht="23.5">
       <c r="A36" s="13" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
@@ -4152,10 +4164,10 @@
       </c>
       <c r="E36" s="16"/>
       <c r="F36" s="14" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G36" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="23.5">
@@ -4188,7 +4200,7 @@
     </row>
     <row r="39" spans="1:7" ht="23.5">
       <c r="A39" s="13" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
@@ -4197,79 +4209,93 @@
         <v>35034</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="23.5">
       <c r="A40" s="13" t="s">
-        <v>398</v>
+        <v>409</v>
       </c>
       <c r="C40" s="14">
         <v>1</v>
       </c>
       <c r="D40" s="26">
+        <v>35370</v>
+      </c>
+      <c r="F40" s="14" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" ht="23.5">
+      <c r="A41" s="13" t="s">
+        <v>392</v>
+      </c>
+      <c r="C41" s="14">
+        <v>1</v>
+      </c>
+      <c r="D41" s="26">
         <v>35462</v>
       </c>
-      <c r="E40" s="12"/>
-      <c r="F40" s="14" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" ht="23.5">
-      <c r="A42" s="1" t="s">
-        <v>383</v>
-      </c>
-      <c r="C42" s="14">
+      <c r="E41" s="12"/>
+      <c r="F41" s="14" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" ht="23.5">
+      <c r="A43" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="C43" s="14">
         <v>4</v>
       </c>
-      <c r="D42" s="26">
+      <c r="D43" s="26">
         <v>36739</v>
-      </c>
-      <c r="E42" s="16"/>
-      <c r="F42" s="9" t="s">
-        <v>384</v>
-      </c>
-      <c r="G42" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="13" t="s">
-        <v>386</v>
-      </c>
-      <c r="C43" t="s">
-        <v>387</v>
-      </c>
-      <c r="D43" s="31">
-        <v>36861</v>
       </c>
       <c r="E43" s="16"/>
       <c r="F43" s="9" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G43" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" ht="23.5">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="13" t="s">
+        <v>380</v>
+      </c>
+      <c r="C44" t="s">
+        <v>381</v>
+      </c>
+      <c r="D44" s="31">
+        <v>36861</v>
+      </c>
+      <c r="E44" s="16"/>
+      <c r="F44" s="9" t="s">
+        <v>378</v>
+      </c>
+      <c r="G44" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" ht="23.5">
+      <c r="A45" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C44" s="14">
+      <c r="C45" s="14">
         <v>1</v>
       </c>
-      <c r="D44" s="14">
+      <c r="D45" s="14">
         <v>2014</v>
       </c>
-      <c r="E44" s="12"/>
-      <c r="F44" s="14" t="s">
+      <c r="E45" s="12"/>
+      <c r="F45" s="14" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F42" r:id="rId1" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{343589AC-BD2F-4CF0-BF97-73F2F95F5465}"/>
-    <hyperlink ref="F43" r:id="rId2" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{69BF8C69-B37C-4181-8AC8-CB7101FEA86E}"/>
+    <hyperlink ref="F43" r:id="rId1" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{343589AC-BD2F-4CF0-BF97-73F2F95F5465}"/>
+    <hyperlink ref="F44" r:id="rId2" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{69BF8C69-B37C-4181-8AC8-CB7101FEA86E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4277,10 +4303,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
-  <dimension ref="A4:D64"/>
+  <dimension ref="A4:D67"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D66" sqref="D66"/>
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4383,7 +4409,7 @@
         <v>-1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="21">
@@ -4722,98 +4748,113 @@
         <v>329</v>
       </c>
       <c r="C56" s="7">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>346</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B57" s="21">
-        <v>330</v>
-      </c>
-      <c r="C57" s="21">
-        <v>330</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>355</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" ht="21">
+      <c r="B57" s="7">
+        <v>332</v>
+      </c>
+      <c r="C57" s="7">
+        <v>332</v>
+      </c>
+      <c r="D57" s="7" t="s">
+        <v>362</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="21">
       <c r="B58" s="7">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="C58" s="7">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>381</v>
+        <v>364</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="21">
       <c r="B59" s="7">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="C59" s="7">
-        <v>332</v>
+        <v>337</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>366</v>
+        <v>400</v>
       </c>
     </row>
     <row r="60" spans="2:4" ht="21">
-      <c r="B60" s="7">
-        <v>333</v>
-      </c>
-      <c r="C60" s="7">
-        <v>334</v>
-      </c>
-      <c r="D60" s="7" t="s">
-        <v>369</v>
-      </c>
+      <c r="B60" s="7"/>
+      <c r="C60" s="7"/>
+      <c r="D60" s="7"/>
     </row>
     <row r="61" spans="2:4" ht="21">
       <c r="B61" s="7">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="C61" s="7">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="21">
-      <c r="B62" s="7">
-        <v>356</v>
-      </c>
-      <c r="C62" s="7">
-        <v>357</v>
-      </c>
-      <c r="D62" s="7" t="s">
-        <v>400</v>
-      </c>
+      <c r="B62" s="7"/>
+      <c r="C62" s="7"/>
+      <c r="D62" s="7"/>
     </row>
     <row r="63" spans="2:4" ht="21">
       <c r="B63" s="7">
+        <v>347</v>
+      </c>
+      <c r="C63" s="7">
+        <v>349</v>
+      </c>
+      <c r="D63" s="7" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" ht="21">
+      <c r="B64" s="7"/>
+      <c r="C64" s="7"/>
+      <c r="D64" s="7"/>
+    </row>
+    <row r="65" spans="2:4" ht="21">
+      <c r="B65" s="7">
+        <v>356</v>
+      </c>
+      <c r="C65" s="7">
+        <v>357</v>
+      </c>
+      <c r="D65" s="7" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" ht="21">
+      <c r="B66" s="7">
         <v>380</v>
       </c>
-      <c r="C63" s="7">
+      <c r="C66" s="7">
         <v>380</v>
       </c>
-      <c r="D63" s="7" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" ht="21">
-      <c r="B64" s="7">
+      <c r="D66" s="7" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="21">
+      <c r="B67" s="7">
         <v>387</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C67" s="7">
         <v>387</v>
       </c>
-      <c r="D64" s="7" t="s">
-        <v>389</v>
+      <c r="D67" s="7" t="s">
+        <v>383</v>
       </c>
     </row>
   </sheetData>
@@ -4826,7 +4867,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
-  <dimension ref="A4:D59"/>
+  <dimension ref="A4:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="D39" sqref="D39"/>
@@ -4913,7 +4954,7 @@
         <v>-1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
@@ -5092,7 +5133,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="33" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B33" s="23">
         <v>48</v>
       </c>
@@ -5100,166 +5141,214 @@
         <v>52</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B34" s="23"/>
       <c r="C34" s="23"/>
       <c r="D34" s="23"/>
     </row>
-    <row r="35" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B35" s="23">
+        <v>55</v>
+      </c>
+      <c r="C35" s="23">
+        <v>55</v>
+      </c>
+      <c r="D35" s="23" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
+      <c r="D36" s="23"/>
+    </row>
+    <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B37" s="23">
+        <v>57</v>
+      </c>
+      <c r="C37" s="23">
+        <v>57</v>
+      </c>
+      <c r="D37" s="23" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
+      <c r="D38" s="23"/>
+    </row>
+    <row r="39" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B39" s="23">
+        <v>62</v>
+      </c>
+      <c r="C39" s="23">
+        <v>65</v>
+      </c>
+      <c r="D39" s="23" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B41" s="23">
         <v>67</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C41" s="23">
         <v>69</v>
       </c>
-      <c r="D35" s="23" t="s">
-        <v>396</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B36" s="23">
+      <c r="D41" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B42" s="23">
         <v>76</v>
       </c>
-      <c r="C36" s="23">
+      <c r="C42" s="23">
         <v>77</v>
       </c>
-      <c r="D36" s="23" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B37" s="23"/>
-      <c r="C37" s="23"/>
-      <c r="D37" s="23"/>
-    </row>
-    <row r="38" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B38" s="23">
+      <c r="D42" s="23" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B44" s="23">
         <v>96</v>
       </c>
-      <c r="C38" s="23">
+      <c r="C44" s="23">
         <v>96</v>
       </c>
-      <c r="D38" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B39" s="23">
+      <c r="D44" s="23" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B45" s="23">
         <v>99</v>
       </c>
-      <c r="C39" s="23">
+      <c r="C45" s="23">
         <v>99</v>
       </c>
-      <c r="D39" s="23" t="s">
-        <v>399</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B40" s="23">
+      <c r="D45" s="23" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B46" s="23">
         <v>107</v>
       </c>
-      <c r="C40" s="23">
+      <c r="C46" s="23">
         <v>107</v>
       </c>
-      <c r="D40" s="23" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4" ht="21.5">
-      <c r="A45" s="1" t="s">
+      <c r="D46" s="23" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="21.5">
+      <c r="A51" s="1" t="s">
         <v>303</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
+    <row r="52" spans="1:4">
+      <c r="A52" s="2" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="8" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="9" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="8" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="56" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B56" s="7" t="s">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C56" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="57" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A57" s="28">
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A63" s="28">
         <v>33725</v>
       </c>
-      <c r="B57" s="7">
+      <c r="B63" s="7">
         <v>1</v>
       </c>
-      <c r="C57" s="7">
+      <c r="C63" s="7">
         <v>1</v>
       </c>
-      <c r="D57" s="7" t="s">
+      <c r="D63" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="58" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A58" s="28">
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A64" s="28">
         <v>34243</v>
       </c>
-      <c r="B58" s="7">
+      <c r="B64" s="7">
         <v>2</v>
       </c>
-      <c r="C58" s="7">
+      <c r="C64" s="7">
         <v>2</v>
       </c>
-      <c r="D58" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>308</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="23" customFormat="1" ht="21">
-      <c r="A59" s="30">
+    <row r="65" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A65" s="30">
         <v>34608</v>
       </c>
-      <c r="B59" s="23">
+      <c r="B65" s="23">
         <v>3</v>
       </c>
-      <c r="C59" s="23">
+      <c r="C65" s="23">
         <v>3</v>
       </c>
-      <c r="D59" s="23" t="s">
+      <c r="D65" s="23" t="s">
         <v>309</v>
       </c>
     </row>
@@ -5267,7 +5356,7 @@
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{C4D82E1F-7335-462D-B1D3-80644D45703B}"/>
     <hyperlink ref="C8" r:id="rId2" display="https://www.comicsbox.it/serie/XM_LGY" xr:uid="{DC06B115-7C34-4CE0-B14A-B8840E8C2816}"/>
-    <hyperlink ref="A53" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
+    <hyperlink ref="A59" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5488,7 +5577,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="E28" s="30">
         <v>33055</v>
@@ -5560,10 +5649,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A7413-140D-4E35-BC62-DC846E3AF88F}">
-  <dimension ref="A4:F23"/>
+  <dimension ref="A4:F25"/>
   <sheetViews>
     <sheetView topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D28" sqref="D28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5690,7 +5779,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
@@ -5701,7 +5790,7 @@
         <v>10</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="2:4" ht="21">
@@ -5712,7 +5801,7 @@
         <v>12</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
@@ -5723,7 +5812,18 @@
         <v>14</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>397</v>
+        <v>391</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4" ht="21">
+      <c r="B25" s="7">
+        <v>16</v>
+      </c>
+      <c r="C25" s="7">
+        <v>16</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>411</v>
       </c>
     </row>
   </sheetData>
@@ -5736,10 +5836,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF5FAC-CDFC-416F-92FB-D0D5F204A05B}">
-  <dimension ref="A4:E60"/>
+  <dimension ref="A4:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60:XFD60"/>
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5911,7 +6011,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B33" s="7">
         <v>101</v>
       </c>
@@ -5919,7 +6019,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="34" spans="1:5" s="24" customFormat="1" ht="21">
       <c r="B34" s="23">
         <v>106</v>
       </c>
@@ -5928,7 +6028,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="35" spans="1:5" s="22" customFormat="1" ht="21">
       <c r="B35" s="21">
         <v>107</v>
       </c>
@@ -5937,7 +6037,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B36" s="7">
         <v>108</v>
       </c>
@@ -5945,7 +6045,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B37" s="7">
         <v>110</v>
       </c>
@@ -5956,7 +6056,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21">
+    <row r="38" spans="1:5" ht="21">
       <c r="B38" s="7">
         <v>112</v>
       </c>
@@ -5964,10 +6064,10 @@
         <v>116</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4" s="22" customFormat="1" ht="21">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="22" customFormat="1" ht="21">
       <c r="B39" s="21">
         <v>117</v>
       </c>
@@ -5975,10 +6075,10 @@
         <v>121</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="7" customFormat="1" ht="21">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B40" s="7">
         <v>122</v>
       </c>
@@ -5986,146 +6086,161 @@
         <v>124</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4" ht="21.5">
-      <c r="A42" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B41" s="7">
+        <v>125</v>
+      </c>
+      <c r="C41" s="7">
+        <v>126</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>404</v>
+      </c>
+      <c r="E41" s="21" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="21"/>
+    <row r="44" spans="1:5" ht="21.5">
+      <c r="A44" s="1" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="s">
         <v>278</v>
       </c>
-      <c r="D44" s="11" t="s">
+      <c r="D46" s="11" t="s">
         <v>281</v>
       </c>
     </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="8" t="s">
+    <row r="47" spans="1:5">
+      <c r="A47" s="8" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
+    <row r="48" spans="1:5">
+      <c r="A48" s="8" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="9" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8" t="s">
         <v>102</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B52" s="7">
-        <v>1</v>
-      </c>
-      <c r="D52" s="7" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B53" s="7">
-        <v>2</v>
-      </c>
-      <c r="D53" s="7" t="s">
-        <v>283</v>
       </c>
     </row>
     <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B55" s="7">
+        <v>2</v>
+      </c>
+      <c r="D55" s="7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B56" s="7">
         <v>3</v>
       </c>
-      <c r="D54" s="7" t="s">
+      <c r="D56" s="7" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="B55" s="23">
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="B57" s="23">
         <v>4</v>
       </c>
-      <c r="D55" s="21" t="s">
-        <v>370</v>
-      </c>
-      <c r="E55" s="23" t="s">
+      <c r="D57" s="21" t="s">
+        <v>365</v>
+      </c>
+      <c r="E57" s="23" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="B56" s="21">
+    <row r="58" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="B58" s="21">
         <v>5</v>
       </c>
-      <c r="D56" s="21" t="s">
+      <c r="D58" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="E56" s="23" t="s">
+      <c r="E58" s="23" t="s">
         <v>285</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B57" s="7">
-        <v>6</v>
-      </c>
-      <c r="D57" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="E57" s="23" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B58" s="7">
-        <v>7</v>
-      </c>
-      <c r="D58" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="E58" s="23" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="59" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B59" s="7">
+        <v>6</v>
+      </c>
+      <c r="D59" s="7" t="s">
+        <v>288</v>
+      </c>
+      <c r="E59" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B60" s="7">
+        <v>7</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="E60" s="23" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B61" s="7">
         <v>8</v>
       </c>
-      <c r="D59" s="7" t="s">
+      <c r="D61" s="7" t="s">
         <v>292</v>
       </c>
-      <c r="E59" s="23" t="s">
+      <c r="E61" s="23" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="23" customFormat="1" ht="21">
-      <c r="B60" s="23">
+    <row r="62" spans="1:5" s="23" customFormat="1" ht="21">
+      <c r="B62" s="23">
         <v>9</v>
       </c>
-      <c r="D60" s="23" t="s">
-        <v>371</v>
-      </c>
-      <c r="E60" s="23" t="s">
+      <c r="D62" s="23" t="s">
+        <v>366</v>
+      </c>
+      <c r="E62" s="23" t="s">
         <v>219</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xfactor" xr:uid="{63365B05-2D6B-4E6B-B730-27C4ED9729E9}"/>
-    <hyperlink ref="A49" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xfactor" xr:uid="{8C2928CA-5085-4CE6-B095-8517A9A507B0}"/>
+    <hyperlink ref="A51" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xfactor" xr:uid="{8C2928CA-5085-4CE6-B095-8517A9A507B0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6133,10 +6248,10 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44FEABB-B05F-4D60-821F-9AF147DCB06F}">
-  <dimension ref="A4:D53"/>
+  <dimension ref="A4:D49"/>
   <sheetViews>
-    <sheetView topLeftCell="A30" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView topLeftCell="A32" zoomScale="163" zoomScaleNormal="163" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6368,110 +6483,88 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="21" customFormat="1" ht="21">
-      <c r="B35" s="21">
-        <v>93</v>
-      </c>
-      <c r="C35" s="21">
-        <v>94</v>
-      </c>
-      <c r="D35" s="21" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B36" s="7">
-        <v>95</v>
-      </c>
-      <c r="C36" s="7">
-        <v>98</v>
-      </c>
-      <c r="D36" s="7" t="s">
+    <row r="36" spans="1:4" ht="21.5">
+      <c r="A36" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="8" t="s">
+        <v>210</v>
+      </c>
+      <c r="C39" s="11" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="8" t="s">
         <v>368</v>
       </c>
     </row>
-    <row r="40" spans="1:4" ht="21.5">
-      <c r="A40" s="1" t="s">
-        <v>372</v>
-      </c>
-    </row>
     <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
-        <v>1</v>
+      <c r="A41" s="8" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="8" t="s">
+        <v>31</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="C43" s="11" t="s">
-        <v>375</v>
+        <v>32</v>
       </c>
     </row>
     <row r="44" spans="1:4">
-      <c r="A44" s="8" t="s">
-        <v>373</v>
+      <c r="A44" s="9" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="8" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="51" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B51" s="7" t="s">
+    <row r="47" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B47" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C51" s="7" t="s">
+      <c r="C47" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="52" spans="1:4" s="21" customFormat="1" ht="21">
-      <c r="B52" s="21">
+    <row r="48" spans="1:4" s="21" customFormat="1" ht="21">
+      <c r="B48" s="21">
         <v>1</v>
       </c>
-      <c r="C52" s="21">
+      <c r="C48" s="21">
         <v>1</v>
       </c>
-      <c r="D52" s="21" t="s">
+      <c r="D48" s="21" t="s">
         <v>169</v>
       </c>
     </row>
-    <row r="53" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B53" s="7">
+    <row r="49" spans="2:4" s="7" customFormat="1" ht="21">
+      <c r="B49" s="7">
         <v>2</v>
       </c>
-      <c r="C53" s="7">
+      <c r="C49" s="7">
         <v>2</v>
       </c>
-      <c r="D53" s="7" t="s">
-        <v>376</v>
+      <c r="D49" s="7" t="s">
+        <v>371</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=excalibur" xr:uid="{5D3F166A-4A97-4DBD-AB80-4D06DB0B3E81}"/>
-    <hyperlink ref="A48" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=excalibur" xr:uid="{A9DDF166-497F-423E-9599-7B2E3D27399C}"/>
+    <hyperlink ref="A44" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=excalibur" xr:uid="{A9DDF166-497F-423E-9599-7B2E3D27399C}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6727,7 +6820,7 @@
         <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -6738,7 +6831,7 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -6749,7 +6842,7 @@
         <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -6760,7 +6853,7 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>
@@ -6773,10 +6866,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678F1A-8AFC-434A-9739-5C97AFE9725F}">
-  <dimension ref="A4:E59"/>
+  <dimension ref="A4:E57"/>
   <sheetViews>
     <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="D45" sqref="D45"/>
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -7064,174 +7157,146 @@
         <v>49</v>
       </c>
       <c r="C38" s="7">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>348</v>
+        <v>407</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="B39" s="21">
-        <v>50</v>
-      </c>
-      <c r="C39" s="21">
-        <v>50</v>
-      </c>
-      <c r="D39" s="21" t="s">
-        <v>356</v>
-      </c>
-      <c r="E39" s="21" t="s">
-        <v>22</v>
-      </c>
-    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="21"/>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
       <c r="B40" s="7">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="C40" s="7">
-        <v>56</v>
+        <v>67</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="21"/>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B42" s="7">
-        <v>67</v>
-      </c>
-      <c r="C42" s="7">
-        <v>67</v>
-      </c>
-      <c r="D42" s="7" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B43" s="7">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B41" s="7">
         <v>70</v>
       </c>
-      <c r="C43" s="7">
+      <c r="C41" s="7">
         <v>70</v>
       </c>
-      <c r="D43" s="7" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="21.5">
-      <c r="A45" s="1" t="s">
+      <c r="D41" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.5">
+      <c r="A43" s="1" t="s">
         <v>310</v>
       </c>
     </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="2" t="s">
-        <v>1</v>
+      <c r="A46" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
     </row>
     <row r="49" spans="1:5">
       <c r="A49" s="8" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:5">
       <c r="A50" s="8" t="s">
-        <v>306</v>
+        <v>32</v>
       </c>
     </row>
     <row r="51" spans="1:5">
-      <c r="A51" s="8" t="s">
-        <v>31</v>
+      <c r="A51" s="9" t="s">
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:5">
       <c r="A52" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="53" spans="1:5">
-      <c r="A53" s="9" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="A54" s="28">
+        <v>33725</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A55" s="29">
+        <v>34243</v>
+      </c>
+      <c r="B55" s="21">
         <v>2</v>
       </c>
-    </row>
-    <row r="54" spans="1:5">
-      <c r="A54" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="A56" s="28">
-        <v>33725</v>
-      </c>
-      <c r="B56" s="7">
-        <v>1</v>
-      </c>
-      <c r="C56" s="7">
-        <v>1</v>
-      </c>
-      <c r="D56" s="7" t="s">
-        <v>311</v>
+      <c r="C55" s="21">
+        <v>2</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A56" s="29">
+        <v>34608</v>
+      </c>
+      <c r="B56" s="21">
+        <v>3</v>
+      </c>
+      <c r="C56" s="21">
+        <v>3</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>301</v>
       </c>
     </row>
     <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
       <c r="A57" s="29">
-        <v>34243</v>
+        <v>35034</v>
       </c>
       <c r="B57" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C57" s="21">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>312</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A58" s="29">
-        <v>34608</v>
-      </c>
-      <c r="B58" s="21">
-        <v>3</v>
-      </c>
-      <c r="C58" s="21">
-        <v>3</v>
-      </c>
-      <c r="D58" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A59" s="29">
-        <v>35034</v>
-      </c>
-      <c r="B59" s="21">
-        <v>1</v>
-      </c>
-      <c r="C59" s="21">
-        <v>1</v>
-      </c>
-      <c r="D59" s="21" t="s">
-        <v>353</v>
-      </c>
-      <c r="E59" s="21" t="s">
-        <v>354</v>
+        <v>351</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>352</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{1A56ADB5-3BCF-4665-BB75-7F35E466119C}"/>
-    <hyperlink ref="A53" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
+    <hyperlink ref="A51" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FEEF9BE-CE88-4E56-B0F0-D8FBBB66276F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C041E-CFD8-47F0-9312-C767311FFDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="10720" yWindow="1460" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="380" yWindow="380" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="625" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="420">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1429,22 +1429,6 @@
     <t>X-Men Annuals #1</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">X-Men Annuals #1 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="16"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Marvel Magazine #9</t>
-    </r>
-  </si>
-  <si>
     <t>X-Men Annual Vol 2</t>
   </si>
   <si>
@@ -1671,9 +1655,6 @@
     <t>Star Magazine #42 Gli Incredibili X-Men #45</t>
   </si>
   <si>
-    <t>Incredibili X-Men da #81 a #83</t>
-  </si>
-  <si>
     <t>Marvel Mix #10</t>
   </si>
   <si>
@@ -1948,12 +1929,6 @@
     <t>Incredibili X-Men #86</t>
   </si>
   <si>
-    <t>Gli Incredibili X-Men #86</t>
-  </si>
-  <si>
-    <t>#125 manca prima storia Marvel Mega #8</t>
-  </si>
-  <si>
     <t>X-Men Deluxe da #23 a #26</t>
   </si>
   <si>
@@ -1973,6 +1948,39 @@
   </si>
   <si>
     <t>Incredibili X-Men #99</t>
+  </si>
+  <si>
+    <t>Marvel Crossover #20</t>
+  </si>
+  <si>
+    <t>Onslaught: X-Men</t>
+  </si>
+  <si>
+    <t>Onslaught; Marvel</t>
+  </si>
+  <si>
+    <t>Marvel Crossover #21</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men #86 Marvel Mega #8</t>
+  </si>
+  <si>
+    <t>Marvel Mega #8</t>
+  </si>
+  <si>
+    <t>F4 #155</t>
+  </si>
+  <si>
+    <t>X-Men Annuals #1 Marvel Magazine #9</t>
+  </si>
+  <si>
+    <t>X-Force Annual vol.1 #3</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men da #81 a #85</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #85</t>
   </si>
 </sst>
 </file>
@@ -2815,10 +2823,10 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B17" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="C17">
         <v>1993</v>
@@ -2845,7 +2853,7 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B19" t="s">
         <v>28</v>
@@ -2858,7 +2866,7 @@
       </c>
       <c r="E19" s="25"/>
       <c r="F19" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -3062,23 +3070,23 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" s="8" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="8" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3093,7 +3101,7 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="9" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3128,7 +3136,7 @@
         <v>11</v>
       </c>
       <c r="D17" s="23" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
@@ -3139,7 +3147,7 @@
         <v>12</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
     </row>
   </sheetData>
@@ -3718,10 +3726,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C73E41-C83A-4DCB-A6D9-44866E58ABBC}">
-  <dimension ref="A10:G45"/>
+  <dimension ref="A10:G48"/>
   <sheetViews>
     <sheetView topLeftCell="A23" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="21"/>
@@ -4125,54 +4133,51 @@
     </row>
     <row r="34" spans="1:7" s="14" customFormat="1" ht="23.5">
       <c r="A34" s="13" t="s">
-        <v>75</v>
+        <v>417</v>
       </c>
       <c r="C34" s="14">
-        <v>1</v>
-      </c>
-      <c r="D34" s="14">
-        <v>1995</v>
+        <v>3</v>
+      </c>
+      <c r="D34" s="26">
+        <v>34608</v>
       </c>
       <c r="E34" s="15"/>
       <c r="F34" s="14" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="23.5">
+      <c r="A35" s="13" t="s">
+        <v>75</v>
+      </c>
+      <c r="C35" s="14">
+        <v>1</v>
+      </c>
+      <c r="D35" s="14">
+        <v>1995</v>
+      </c>
+      <c r="E35" s="15"/>
+      <c r="F35" s="14" t="s">
         <v>74</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" ht="23.5">
-      <c r="A35" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="C35" s="14">
-        <v>1</v>
-      </c>
-      <c r="D35" s="26">
-        <v>34881</v>
-      </c>
-      <c r="F35" s="14" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="36" spans="1:7" ht="23.5">
       <c r="A36" s="13" t="s">
-        <v>397</v>
+        <v>223</v>
       </c>
       <c r="C36" s="14">
         <v>1</v>
       </c>
       <c r="D36" s="26">
-        <v>34973</v>
-      </c>
-      <c r="E36" s="16"/>
+        <v>34881</v>
+      </c>
       <c r="F36" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="G36" t="s">
-        <v>399</v>
+        <v>224</v>
       </c>
     </row>
     <row r="37" spans="1:7" ht="23.5">
       <c r="A37" s="13" t="s">
-        <v>225</v>
+        <v>395</v>
       </c>
       <c r="C37" s="14">
         <v>1</v>
@@ -4180,122 +4185,170 @@
       <c r="D37" s="26">
         <v>34973</v>
       </c>
+      <c r="E37" s="16"/>
       <c r="F37" s="14" t="s">
-        <v>226</v>
+        <v>396</v>
+      </c>
+      <c r="G37" t="s">
+        <v>397</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="23.5">
       <c r="A38" s="13" t="s">
-        <v>315</v>
+        <v>225</v>
       </c>
       <c r="C38" s="14">
         <v>1</v>
       </c>
       <c r="D38" s="26">
-        <v>35004</v>
+        <v>34973</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>316</v>
+        <v>226</v>
       </c>
     </row>
     <row r="39" spans="1:7" ht="23.5">
       <c r="A39" s="13" t="s">
-        <v>352</v>
+        <v>314</v>
       </c>
       <c r="C39" s="14">
         <v>1</v>
       </c>
       <c r="D39" s="26">
-        <v>35034</v>
+        <v>35004</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>376</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:7" ht="23.5">
       <c r="A40" s="13" t="s">
-        <v>409</v>
+        <v>350</v>
       </c>
       <c r="C40" s="14">
         <v>1</v>
       </c>
       <c r="D40" s="26">
-        <v>35370</v>
+        <v>35034</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
     </row>
     <row r="41" spans="1:7" ht="23.5">
       <c r="A41" s="13" t="s">
-        <v>392</v>
+        <v>410</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
       </c>
       <c r="D41" s="26">
-        <v>35462</v>
+        <v>35278</v>
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
-        <v>391</v>
+        <v>409</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" ht="23.5">
+      <c r="A42" s="13" t="s">
+        <v>411</v>
+      </c>
+      <c r="C42" s="14">
+        <v>1</v>
+      </c>
+      <c r="D42" s="26">
+        <v>35339</v>
+      </c>
+      <c r="E42" s="12"/>
+      <c r="F42" s="14" t="s">
+        <v>412</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="23.5">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="13" t="s">
+        <v>405</v>
+      </c>
+      <c r="C43" s="14">
+        <v>1</v>
+      </c>
+      <c r="D43" s="26">
+        <v>35370</v>
+      </c>
+      <c r="F43" s="14" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" ht="23.5">
+      <c r="A44" s="13" t="s">
+        <v>390</v>
+      </c>
+      <c r="C44" s="14">
+        <v>1</v>
+      </c>
+      <c r="D44" s="26">
+        <v>35462</v>
+      </c>
+      <c r="E44" s="12"/>
+      <c r="F44" s="14" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" ht="23.5">
+      <c r="A46" s="1" t="s">
+        <v>375</v>
+      </c>
+      <c r="C46" s="14">
+        <v>4</v>
+      </c>
+      <c r="D46" s="26">
+        <v>36739</v>
+      </c>
+      <c r="E46" s="16"/>
+      <c r="F46" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G46" t="s">
         <v>377</v>
       </c>
-      <c r="C43" s="14">
-        <v>4</v>
-      </c>
-      <c r="D43" s="26">
-        <v>36739</v>
-      </c>
-      <c r="E43" s="16"/>
-      <c r="F43" s="9" t="s">
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="13" t="s">
         <v>378</v>
       </c>
-      <c r="G43" t="s">
+      <c r="C47" t="s">
         <v>379</v>
       </c>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="13" t="s">
+      <c r="D47" s="31">
+        <v>36861</v>
+      </c>
+      <c r="E47" s="16"/>
+      <c r="F47" s="9" t="s">
+        <v>376</v>
+      </c>
+      <c r="G47" t="s">
         <v>380</v>
       </c>
-      <c r="C44" t="s">
-        <v>381</v>
-      </c>
-      <c r="D44" s="31">
-        <v>36861</v>
-      </c>
-      <c r="E44" s="16"/>
-      <c r="F44" s="9" t="s">
-        <v>378</v>
-      </c>
-      <c r="G44" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" ht="23.5">
-      <c r="A45" s="13" t="s">
+    </row>
+    <row r="48" spans="1:7" ht="23.5">
+      <c r="A48" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="C45" s="14">
-        <v>1</v>
-      </c>
-      <c r="D45" s="14">
+      <c r="C48" s="14">
+        <v>1</v>
+      </c>
+      <c r="D48" s="14">
         <v>2014</v>
       </c>
-      <c r="E45" s="12"/>
-      <c r="F45" s="14" t="s">
+      <c r="E48" s="12"/>
+      <c r="F48" s="14" t="s">
         <v>138</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F43" r:id="rId1" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{343589AC-BD2F-4CF0-BF97-73F2F95F5465}"/>
-    <hyperlink ref="F44" r:id="rId2" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{69BF8C69-B37C-4181-8AC8-CB7101FEA86E}"/>
+    <hyperlink ref="F46" r:id="rId1" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{343589AC-BD2F-4CF0-BF97-73F2F95F5465}"/>
+    <hyperlink ref="F47" r:id="rId2" display="https://www.comicsbox.it/albo/XM_SM_133" xr:uid="{69BF8C69-B37C-4181-8AC8-CB7101FEA86E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -4303,10 +4356,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
-  <dimension ref="A4:D67"/>
+  <dimension ref="A4:D69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4409,7 +4462,7 @@
         <v>-1</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="7" customFormat="1" ht="21">
@@ -4729,7 +4782,7 @@
         <v>327</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="55" spans="2:4" ht="21">
@@ -4740,7 +4793,7 @@
         <v>328</v>
       </c>
       <c r="D55" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="56" spans="2:4" ht="21">
@@ -4751,7 +4804,7 @@
         <v>331</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="21">
@@ -4762,7 +4815,7 @@
         <v>332</v>
       </c>
       <c r="D57" s="7" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
     </row>
     <row r="58" spans="2:4" ht="21">
@@ -4773,34 +4826,40 @@
         <v>334</v>
       </c>
       <c r="D58" s="7" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
     </row>
     <row r="59" spans="2:4" ht="21">
       <c r="B59" s="7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C59" s="7">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" ht="21">
-      <c r="B60" s="7"/>
-      <c r="C60" s="7"/>
-      <c r="D60" s="7"/>
+        <v>414</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" s="22" customFormat="1" ht="21">
+      <c r="B60" s="21">
+        <v>336</v>
+      </c>
+      <c r="C60" s="21">
+        <v>336</v>
+      </c>
+      <c r="D60" s="21" t="s">
+        <v>415</v>
+      </c>
     </row>
     <row r="61" spans="2:4" ht="21">
       <c r="B61" s="7">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="C61" s="7">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>411</v>
+        <v>398</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="21">
@@ -4810,13 +4869,13 @@
     </row>
     <row r="63" spans="2:4" ht="21">
       <c r="B63" s="7">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="C63" s="7">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>412</v>
+        <v>407</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="21">
@@ -4826,35 +4885,51 @@
     </row>
     <row r="65" spans="2:4" ht="21">
       <c r="B65" s="7">
-        <v>356</v>
+        <v>347</v>
       </c>
       <c r="C65" s="7">
-        <v>357</v>
+        <v>349</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>394</v>
+        <v>408</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="21">
-      <c r="B66" s="7">
-        <v>380</v>
-      </c>
-      <c r="C66" s="7">
-        <v>380</v>
-      </c>
-      <c r="D66" s="7" t="s">
-        <v>402</v>
-      </c>
+      <c r="B66" s="7"/>
+      <c r="C66" s="7"/>
+      <c r="D66" s="7"/>
     </row>
     <row r="67" spans="2:4" ht="21">
       <c r="B67" s="7">
+        <v>356</v>
+      </c>
+      <c r="C67" s="7">
+        <v>357</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="21">
+      <c r="B68" s="7">
+        <v>380</v>
+      </c>
+      <c r="C68" s="7">
+        <v>380</v>
+      </c>
+      <c r="D68" s="7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" ht="21">
+      <c r="B69" s="7">
         <v>387</v>
       </c>
-      <c r="C67" s="7">
+      <c r="C69" s="7">
         <v>387</v>
       </c>
-      <c r="D67" s="7" t="s">
-        <v>383</v>
+      <c r="D69" s="7" t="s">
+        <v>381</v>
       </c>
     </row>
   </sheetData>
@@ -4870,7 +4945,7 @@
   <dimension ref="A4:D65"/>
   <sheetViews>
     <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="D39" sqref="D39"/>
+      <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4954,7 +5029,7 @@
         <v>-1</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
@@ -5130,7 +5205,7 @@
         <v>47</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
     </row>
     <row r="33" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5138,16 +5213,22 @@
         <v>48</v>
       </c>
       <c r="C33" s="23">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>348</v>
+        <v>418</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B34" s="23"/>
-      <c r="C34" s="23"/>
-      <c r="D34" s="23"/>
+      <c r="B34" s="23">
+        <v>54</v>
+      </c>
+      <c r="C34" s="23">
+        <v>54</v>
+      </c>
+      <c r="D34" s="23" t="s">
+        <v>409</v>
+      </c>
     </row>
     <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B35" s="23">
@@ -5157,13 +5238,19 @@
         <v>55</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B36" s="23"/>
-      <c r="C36" s="23"/>
-      <c r="D36" s="23"/>
+      <c r="B36" s="23">
+        <v>56</v>
+      </c>
+      <c r="C36" s="23">
+        <v>56</v>
+      </c>
+      <c r="D36" s="23" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B37" s="23">
@@ -5173,7 +5260,7 @@
         <v>57</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5189,7 +5276,7 @@
         <v>65</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5205,7 +5292,7 @@
         <v>69</v>
       </c>
       <c r="D41" s="23" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5216,7 +5303,7 @@
         <v>77</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5232,7 +5319,7 @@
         <v>96</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="45" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5243,7 +5330,7 @@
         <v>99</v>
       </c>
       <c r="D45" s="23" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="46" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5254,12 +5341,12 @@
         <v>107</v>
       </c>
       <c r="D46" s="23" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="51" spans="1:4" ht="21.5">
       <c r="A51" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
     </row>
     <row r="52" spans="1:4">
@@ -5269,17 +5356,17 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:4">
@@ -5321,7 +5408,7 @@
         <v>1</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="64" spans="1:4" s="7" customFormat="1" ht="21">
@@ -5335,7 +5422,7 @@
         <v>2</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="23" customFormat="1" ht="21">
@@ -5349,7 +5436,7 @@
         <v>3</v>
       </c>
       <c r="D65" s="23" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
   </sheetData>
@@ -5367,7 +5454,7 @@
   <dimension ref="A4:F32"/>
   <sheetViews>
     <sheetView topLeftCell="B14" zoomScale="176" zoomScaleNormal="176" workbookViewId="0">
-      <selection activeCell="B28" sqref="A28:XFD28"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5577,7 +5664,7 @@
         <v>14</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="E28" s="30">
         <v>33055</v>
@@ -5625,17 +5712,17 @@
         <v>34121</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="21" customFormat="1" ht="21">
-      <c r="B32" s="21">
+    <row r="32" spans="2:6" s="23" customFormat="1" ht="21">
+      <c r="B32" s="23">
         <v>18</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="23">
         <v>18</v>
       </c>
-      <c r="D32" s="21" t="s">
-        <v>302</v>
-      </c>
-      <c r="E32" s="29">
+      <c r="D32" s="23" t="s">
+        <v>416</v>
+      </c>
+      <c r="E32" s="30">
         <v>34486</v>
       </c>
     </row>
@@ -5649,10 +5736,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A7413-140D-4E35-BC62-DC846E3AF88F}">
-  <dimension ref="A4:F25"/>
+  <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5768,7 +5855,7 @@
         <v>8</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="7" customFormat="1" ht="21">
@@ -5779,7 +5866,7 @@
         <v>9</v>
       </c>
       <c r="D20" s="7" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
@@ -5790,40 +5877,51 @@
         <v>10</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="22" spans="2:4" ht="21">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
       <c r="B22" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C22" s="7">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>401</v>
+        <v>419</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
       <c r="B23" s="7">
+        <v>12</v>
+      </c>
+      <c r="C23" s="7">
+        <v>12</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4" ht="21">
+      <c r="B24" s="7">
         <v>14</v>
       </c>
-      <c r="C23" s="7">
+      <c r="C24" s="7">
         <v>14</v>
       </c>
-      <c r="D23" s="7" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="25" spans="2:4" ht="21">
-      <c r="B25" s="7">
+      <c r="D24" s="7" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4" ht="21">
+      <c r="B26" s="7">
         <v>16</v>
       </c>
-      <c r="C25" s="7">
+      <c r="C26" s="7">
         <v>16</v>
       </c>
-      <c r="D25" s="7" t="s">
-        <v>411</v>
+      <c r="D26" s="7" t="s">
+        <v>407</v>
       </c>
     </row>
   </sheetData>
@@ -5839,7 +5937,7 @@
   <dimension ref="A4:E62"/>
   <sheetViews>
     <sheetView topLeftCell="A27" zoomScale="156" zoomScaleNormal="156" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -6064,7 +6162,7 @@
         <v>116</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="39" spans="1:5" s="22" customFormat="1" ht="21">
@@ -6075,7 +6173,7 @@
         <v>121</v>
       </c>
       <c r="D39" s="21" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
@@ -6086,7 +6184,7 @@
         <v>124</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
@@ -6097,11 +6195,9 @@
         <v>126</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="E41" s="21" t="s">
-        <v>405</v>
-      </c>
+        <v>413</v>
+      </c>
+      <c r="E41" s="21"/>
     </row>
     <row r="42" spans="1:5" s="7" customFormat="1" ht="21"/>
     <row r="44" spans="1:5" ht="21.5">
@@ -6176,7 +6272,7 @@
         <v>4</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="E57" s="23" t="s">
         <v>286</v>
@@ -6231,7 +6327,7 @@
         <v>9</v>
       </c>
       <c r="D62" s="23" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="E62" s="23" t="s">
         <v>219</v>
@@ -6337,7 +6433,7 @@
         <v>35</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="21" customFormat="1" ht="21">
@@ -6348,7 +6444,7 @@
         <v>36</v>
       </c>
       <c r="D20" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6359,7 +6455,7 @@
         <v>58</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6370,7 +6466,7 @@
         <v>60</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
@@ -6381,7 +6477,7 @@
         <v>70</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21">
@@ -6392,7 +6488,7 @@
         <v>71</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6480,12 +6576,12 @@
         <v>100</v>
       </c>
       <c r="D32" s="7" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="21.5">
       <c r="A36" s="1" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
     </row>
     <row r="37" spans="1:4">
@@ -6498,17 +6594,17 @@
         <v>210</v>
       </c>
       <c r="C39" s="11" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="8" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="8" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
     </row>
     <row r="42" spans="1:4">
@@ -6558,7 +6654,7 @@
         <v>2</v>
       </c>
       <c r="D49" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
     </row>
   </sheetData>
@@ -6585,7 +6681,7 @@
   <sheetData>
     <row r="4" spans="1:3" ht="21.5">
       <c r="A4" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -6595,17 +6691,17 @@
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="8" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="8" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="8" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -6620,7 +6716,7 @@
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -6644,7 +6740,7 @@
         <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6655,7 +6751,7 @@
         <v>44</v>
       </c>
       <c r="D18" s="23" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6666,7 +6762,7 @@
         <v>47</v>
       </c>
       <c r="D19" s="7" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="20" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6677,7 +6773,7 @@
         <v>48</v>
       </c>
       <c r="D20" s="23" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6688,7 +6784,7 @@
         <v>52</v>
       </c>
       <c r="D21" s="7" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="22" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6699,7 +6795,7 @@
         <v>54</v>
       </c>
       <c r="D22" s="23" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="23" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6710,7 +6806,7 @@
         <v>55</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="24" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6721,7 +6817,7 @@
         <v>56</v>
       </c>
       <c r="D24" s="23" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="25" spans="2:4" s="7" customFormat="1" ht="21">
@@ -6732,7 +6828,7 @@
         <v>70</v>
       </c>
       <c r="D25" s="7" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="26" spans="2:4" s="21" customFormat="1" ht="21">
@@ -6743,7 +6839,7 @@
         <v>74</v>
       </c>
       <c r="D26" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="27" spans="2:4" ht="21">
@@ -6754,7 +6850,7 @@
         <v>75</v>
       </c>
       <c r="D27" s="7" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="28" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6765,7 +6861,7 @@
         <v>78</v>
       </c>
       <c r="D28" s="23" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="29" spans="2:4" ht="21">
@@ -6776,7 +6872,7 @@
         <v>79</v>
       </c>
       <c r="D29" s="7" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="30" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6787,7 +6883,7 @@
         <v>82</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
     </row>
     <row r="31" spans="2:4" ht="21">
@@ -6798,7 +6894,7 @@
         <v>84</v>
       </c>
       <c r="D31" s="7" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="32" spans="2:4" s="23" customFormat="1" ht="21">
@@ -6820,7 +6916,7 @@
         <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -6831,7 +6927,7 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -6842,7 +6938,7 @@
         <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -6853,7 +6949,7 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
   </sheetData>
@@ -7132,7 +7228,7 @@
         <v>47</v>
       </c>
       <c r="D36" s="7" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="E36" s="7" t="s">
         <v>22</v>
@@ -7146,7 +7242,7 @@
         <v>48</v>
       </c>
       <c r="D37" s="7" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="E37" s="7" t="s">
         <v>22</v>
@@ -7160,7 +7256,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
@@ -7175,7 +7271,7 @@
         <v>67</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
@@ -7186,12 +7282,12 @@
         <v>70</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="21.5">
       <c r="A43" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -7201,17 +7297,17 @@
     </row>
     <row r="46" spans="1:5">
       <c r="A46" s="8" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="47" spans="1:5">
       <c r="A47" s="8" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="48" spans="1:5">
       <c r="A48" s="8" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
     </row>
     <row r="49" spans="1:5">
@@ -7245,7 +7341,7 @@
         <v>1</v>
       </c>
       <c r="D54" s="7" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
@@ -7259,7 +7355,7 @@
         <v>2</v>
       </c>
       <c r="D55" s="21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
@@ -7287,10 +7383,10 @@
         <v>1</v>
       </c>
       <c r="D57" s="21" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="E57" s="21" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
     </row>
   </sheetData>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782C041E-CFD8-47F0-9312-C767311FFDB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC3F37-3AEB-4D5A-A995-024FF48A44F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="380" windowWidth="36340" windowHeight="18950" firstSheet="1" activeTab="4" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" firstSheet="1" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -48,7 +48,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="420">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1941,9 +1941,6 @@
     <t>X-Men Annual '96</t>
   </si>
   <si>
-    <t>Incredibili X-Men da #93 a #94</t>
-  </si>
-  <si>
     <t>Incredibili X-Men #94</t>
   </si>
   <si>
@@ -1981,6 +1978,9 @@
   </si>
   <si>
     <t>Incredibili X-Men #85</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #88 a #94</t>
   </si>
 </sst>
 </file>
@@ -4133,7 +4133,7 @@
     </row>
     <row r="34" spans="1:7" s="14" customFormat="1" ht="23.5">
       <c r="A34" s="13" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="C34" s="14">
         <v>3</v>
@@ -4237,7 +4237,7 @@
     </row>
     <row r="41" spans="1:7" ht="23.5">
       <c r="A41" s="13" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
@@ -4247,12 +4247,12 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="23.5">
       <c r="A42" s="13" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C42" s="14">
         <v>1</v>
@@ -4262,7 +4262,7 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="14" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="23.5">
@@ -4358,8 +4358,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
   <dimension ref="A4:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D63" sqref="D63"/>
+    <sheetView topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D70" sqref="D70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4837,7 +4837,7 @@
         <v>335</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="22" customFormat="1" ht="21">
@@ -4848,7 +4848,7 @@
         <v>336</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="21">
@@ -4875,7 +4875,7 @@
         <v>345</v>
       </c>
       <c r="D63" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
     <row r="64" spans="2:4" ht="21">
@@ -4891,7 +4891,7 @@
         <v>349</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="21">
@@ -4942,10 +4942,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
-  <dimension ref="A4:D65"/>
+  <dimension ref="A4:D63"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5216,7 +5216,7 @@
         <v>53</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5227,7 +5227,7 @@
         <v>54</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5249,7 +5249,7 @@
         <v>56</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
     </row>
     <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5257,10 +5257,10 @@
         <v>57</v>
       </c>
       <c r="C37" s="23">
-        <v>57</v>
+        <v>65</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>404</v>
+        <v>419</v>
       </c>
     </row>
     <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
@@ -5270,172 +5270,156 @@
     </row>
     <row r="39" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B39" s="23">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="C39" s="23">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>406</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B40" s="23"/>
-      <c r="C40" s="23"/>
-      <c r="D40" s="23"/>
+      <c r="B40" s="23">
+        <v>76</v>
+      </c>
+      <c r="C40" s="23">
+        <v>77</v>
+      </c>
+      <c r="D40" s="23" t="s">
+        <v>384</v>
+      </c>
     </row>
     <row r="41" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B41" s="23">
-        <v>67</v>
-      </c>
-      <c r="C41" s="23">
-        <v>69</v>
-      </c>
-      <c r="D41" s="23" t="s">
-        <v>388</v>
-      </c>
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
     </row>
     <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B42" s="23">
-        <v>76</v>
+        <v>96</v>
       </c>
       <c r="C42" s="23">
-        <v>77</v>
+        <v>96</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>384</v>
+        <v>393</v>
       </c>
     </row>
     <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B43" s="23"/>
-      <c r="C43" s="23"/>
-      <c r="D43" s="23"/>
+      <c r="B43" s="23">
+        <v>99</v>
+      </c>
+      <c r="C43" s="23">
+        <v>99</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>391</v>
+      </c>
     </row>
     <row r="44" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B44" s="23">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="C44" s="23">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="D44" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B45" s="23">
-        <v>99</v>
-      </c>
-      <c r="C45" s="23">
-        <v>99</v>
-      </c>
-      <c r="D45" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B46" s="23">
-        <v>107</v>
-      </c>
-      <c r="C46" s="23">
-        <v>107</v>
-      </c>
-      <c r="D46" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21.5">
-      <c r="A51" s="1" t="s">
+    <row r="49" spans="1:4" ht="21.5">
+      <c r="A49" s="1" t="s">
         <v>302</v>
       </c>
     </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>1</v>
+      <c r="A52" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="8" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>304</v>
+        <v>31</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="8" t="s">
-        <v>305</v>
+        <v>32</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="8" t="s">
-        <v>31</v>
+      <c r="A57" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="8" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="60" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B60" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A61" s="28">
+        <v>33725</v>
+      </c>
+      <c r="B61" s="7">
+        <v>1</v>
+      </c>
+      <c r="C61" s="7">
+        <v>1</v>
+      </c>
+      <c r="D61" s="7" t="s">
+        <v>306</v>
+      </c>
+    </row>
     <row r="62" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B62" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C62" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A63" s="28">
-        <v>33725</v>
-      </c>
-      <c r="B63" s="7">
-        <v>1</v>
-      </c>
-      <c r="C63" s="7">
-        <v>1</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A64" s="28">
+      <c r="A62" s="28">
         <v>34243</v>
       </c>
-      <c r="B64" s="7">
+      <c r="B62" s="7">
         <v>2</v>
       </c>
-      <c r="C64" s="7">
+      <c r="C62" s="7">
         <v>2</v>
       </c>
-      <c r="D64" s="7" t="s">
+      <c r="D62" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="23" customFormat="1" ht="21">
-      <c r="A65" s="30">
+    <row r="63" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A63" s="30">
         <v>34608</v>
       </c>
-      <c r="B65" s="23">
+      <c r="B63" s="23">
         <v>3</v>
       </c>
-      <c r="C65" s="23">
+      <c r="C63" s="23">
         <v>3</v>
       </c>
-      <c r="D65" s="23" t="s">
+      <c r="D63" s="23" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5443,7 +5427,7 @@
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{C4D82E1F-7335-462D-B1D3-80644D45703B}"/>
     <hyperlink ref="C8" r:id="rId2" display="https://www.comicsbox.it/serie/XM_LGY" xr:uid="{DC06B115-7C34-4CE0-B14A-B8840E8C2816}"/>
-    <hyperlink ref="A59" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
+    <hyperlink ref="A57" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -5720,7 +5704,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E32" s="30">
         <v>34486</v>
@@ -5738,7 +5722,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A7413-140D-4E35-BC62-DC846E3AF88F}">
   <dimension ref="A4:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
+    <sheetView topLeftCell="A12" zoomScale="208" zoomScaleNormal="208" workbookViewId="0">
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
@@ -5888,7 +5872,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
@@ -5921,7 +5905,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
     </row>
   </sheetData>
@@ -6195,7 +6179,7 @@
         <v>126</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E41" s="21"/>
     </row>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,31 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27CC3F37-3AEB-4D5A-A995-024FF48A44F0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04237B-2A0D-4B8B-92A1-FDF2461BC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2030" yWindow="700" windowWidth="36370" windowHeight="18960" firstSheet="1" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-410" yWindow="0" windowWidth="38620" windowHeight="20880" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
     <sheet name="Uncanny X-Men" sheetId="6" r:id="rId2"/>
-    <sheet name="X-Men vol.2" sheetId="8" r:id="rId3"/>
-    <sheet name="UXM Annual" sheetId="7" r:id="rId4"/>
-    <sheet name="X-Men Unlimited vol.1" sheetId="10" r:id="rId5"/>
-    <sheet name="X-Factor" sheetId="2" r:id="rId6"/>
-    <sheet name="Excalibur" sheetId="4" r:id="rId7"/>
-    <sheet name="Wolverine vol.2" sheetId="12" r:id="rId8"/>
-    <sheet name="X-Force" sheetId="1" r:id="rId9"/>
-    <sheet name="Cable" sheetId="9" r:id="rId10"/>
-    <sheet name="X-Man" sheetId="13" r:id="rId11"/>
-    <sheet name="Apocalypse Era" sheetId="11" r:id="rId12"/>
-    <sheet name="Miniserie e Varie" sheetId="5" r:id="rId13"/>
+    <sheet name="New Mutants" sheetId="14" r:id="rId3"/>
+    <sheet name="X-Men vol.2" sheetId="8" r:id="rId4"/>
+    <sheet name="UXM Annual" sheetId="7" r:id="rId5"/>
+    <sheet name="X-Men Unlimited vol.1" sheetId="10" r:id="rId6"/>
+    <sheet name="X-Factor" sheetId="2" r:id="rId7"/>
+    <sheet name="Excalibur" sheetId="4" r:id="rId8"/>
+    <sheet name="Wolverine vol.2" sheetId="12" r:id="rId9"/>
+    <sheet name="X-Force" sheetId="1" r:id="rId10"/>
+    <sheet name="Cable" sheetId="9" r:id="rId11"/>
+    <sheet name="X-Man" sheetId="13" r:id="rId12"/>
+    <sheet name="Apocalypse Era" sheetId="11" r:id="rId13"/>
+    <sheet name="Miniserie e Varie" sheetId="5" r:id="rId14"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="634" uniqueCount="420">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="427">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1981,6 +1982,60 @@
   </si>
   <si>
     <t>Incredibili X-Men #88 a #94</t>
+  </si>
+  <si>
+    <t>New Mutants vol 1</t>
+  </si>
+  <si>
+    <r>
+      <t>anno inizio serie:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1983</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri rilasciati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 1-100</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>numeri catalogati:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="6"/>
+        <color rgb="FF6A6A5D"/>
+        <rFont val="Verdana"/>
+        <family val="2"/>
+      </rPr>
+      <t> 100</t>
+    </r>
+  </si>
+  <si>
+    <t>protagonista: newmutants</t>
+  </si>
+  <si>
+    <t>Dopo l'esordio avvenuto su Marvel Graphic Novel # 4. i giovani mutanti. legati alla celebre squadra degli X-Men. ottengono una loro serie scritta in buona parte di Chris Claremont. dalla durata di cento numeri. Dalle ceneri dei Nuovi Mutanti nasce X-Force.</t>
+  </si>
+  <si>
+    <t>Nuovi Mutanti Play Press da #1 a #23</t>
   </si>
 </sst>
 </file>
@@ -2593,7 +2648,7 @@
   <dimension ref="A2:F25"/>
   <sheetViews>
     <sheetView zoomScale="170" zoomScaleNormal="170" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -2913,6 +2968,444 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678F1A-8AFC-434A-9739-5C97AFE9725F}">
+  <dimension ref="A4:E57"/>
+  <sheetViews>
+    <sheetView zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="50" customWidth="1"/>
+    <col min="4" max="4" width="66.453125" customWidth="1"/>
+    <col min="5" max="5" width="39.08984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="4" spans="1:1" ht="21.5">
+      <c r="A4" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" ht="17.5">
+      <c r="A7" s="3" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" ht="17.5">
+      <c r="A8" s="3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" ht="17.5">
+      <c r="A9" s="3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" ht="17.5">
+      <c r="A10" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:1" ht="17.5">
+      <c r="A11" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12" spans="1:1" ht="18.5">
+      <c r="A12" s="4" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:1" ht="17.5">
+      <c r="A13" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:1">
+      <c r="A15" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:1">
+      <c r="A16" s="6" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" s="5" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" s="6"/>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B22" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C22" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B23" s="7">
+        <v>1</v>
+      </c>
+      <c r="C23" s="7">
+        <v>15</v>
+      </c>
+      <c r="D23" s="7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B24" s="7">
+        <v>16</v>
+      </c>
+      <c r="C24" s="7">
+        <v>16</v>
+      </c>
+      <c r="D24" s="7" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B25" s="7">
+        <v>17</v>
+      </c>
+      <c r="C25" s="7">
+        <v>17</v>
+      </c>
+      <c r="D25" s="7" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B26" s="7">
+        <v>18</v>
+      </c>
+      <c r="C26" s="7">
+        <v>18</v>
+      </c>
+      <c r="D26" s="7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B27" s="7">
+        <v>19</v>
+      </c>
+      <c r="C27" s="7">
+        <v>24</v>
+      </c>
+      <c r="D27" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B28" s="7">
+        <v>25</v>
+      </c>
+      <c r="C28" s="7">
+        <v>25</v>
+      </c>
+      <c r="D28" s="7" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B29" s="7">
+        <v>26</v>
+      </c>
+      <c r="C29" s="7">
+        <v>30</v>
+      </c>
+      <c r="D29" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B30" s="7">
+        <v>31</v>
+      </c>
+      <c r="C30" s="7">
+        <v>31</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B31" s="7">
+        <v>32</v>
+      </c>
+      <c r="C31" s="7">
+        <v>34</v>
+      </c>
+      <c r="D31" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="E31" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B32" s="7">
+        <v>35</v>
+      </c>
+      <c r="C32" s="7">
+        <v>35</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>54</v>
+      </c>
+      <c r="E32" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B33" s="7">
+        <v>36</v>
+      </c>
+      <c r="C33" s="7">
+        <v>37</v>
+      </c>
+      <c r="D33" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B34" s="7">
+        <v>38</v>
+      </c>
+      <c r="C34" s="7">
+        <v>38</v>
+      </c>
+      <c r="D34" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B35" s="7">
+        <v>39</v>
+      </c>
+      <c r="C35" s="7">
+        <v>43</v>
+      </c>
+      <c r="D35" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="E35" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B36" s="7">
+        <v>44</v>
+      </c>
+      <c r="C36" s="7">
+        <v>47</v>
+      </c>
+      <c r="D36" s="7" t="s">
+        <v>343</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B37" s="7">
+        <v>48</v>
+      </c>
+      <c r="C37" s="7">
+        <v>48</v>
+      </c>
+      <c r="D37" s="7" t="s">
+        <v>344</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B38" s="7">
+        <v>49</v>
+      </c>
+      <c r="C38" s="7">
+        <v>56</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="21"/>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B40" s="7">
+        <v>67</v>
+      </c>
+      <c r="C40" s="7">
+        <v>67</v>
+      </c>
+      <c r="D40" s="7" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="B41" s="7">
+        <v>70</v>
+      </c>
+      <c r="C41" s="7">
+        <v>70</v>
+      </c>
+      <c r="D41" s="7" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="21.5">
+      <c r="A43" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46" s="8" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47" s="8" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48" s="8" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51" s="9" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52" s="8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
+      <c r="A54" s="28">
+        <v>33725</v>
+      </c>
+      <c r="B54" s="7">
+        <v>1</v>
+      </c>
+      <c r="C54" s="7">
+        <v>1</v>
+      </c>
+      <c r="D54" s="7" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A55" s="29">
+        <v>34243</v>
+      </c>
+      <c r="B55" s="21">
+        <v>2</v>
+      </c>
+      <c r="C55" s="21">
+        <v>2</v>
+      </c>
+      <c r="D55" s="21" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A56" s="29">
+        <v>34608</v>
+      </c>
+      <c r="B56" s="21">
+        <v>3</v>
+      </c>
+      <c r="C56" s="21">
+        <v>3</v>
+      </c>
+      <c r="D56" s="21" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
+      <c r="A57" s="29">
+        <v>35034</v>
+      </c>
+      <c r="B57" s="21">
+        <v>1</v>
+      </c>
+      <c r="C57" s="21">
+        <v>1</v>
+      </c>
+      <c r="D57" s="21" t="s">
+        <v>349</v>
+      </c>
+      <c r="E57" s="21" t="s">
+        <v>350</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{1A56ADB5-3BCF-4665-BB75-7F35E466119C}"/>
+    <hyperlink ref="A51" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AEB2E8AB-9F5F-40CC-9363-75C1D668DD87}">
   <dimension ref="A4:E20"/>
   <sheetViews>
@@ -3044,7 +3537,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BB0DF33-44E1-4A62-B699-D53F0016EF43}">
   <dimension ref="A4:D18"/>
   <sheetViews>
@@ -3158,7 +3651,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9185028E-4870-48F9-9E48-5240CEEE64CF}">
   <dimension ref="A4:D51"/>
   <sheetViews>
@@ -3724,7 +4217,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16C73E41-C83A-4DCB-A6D9-44866E58ABBC}">
   <dimension ref="A10:G48"/>
   <sheetViews>
@@ -4358,8 +4851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
   <dimension ref="A4:D69"/>
   <sheetViews>
-    <sheetView topLeftCell="A50" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D70" sqref="D70"/>
+    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:XFD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -4941,10 +5434,95 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175BF097-4CA4-43D5-9E77-3C62E1438D50}">
+  <dimension ref="A2:D16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="3" max="3" width="7" customWidth="1"/>
+    <col min="4" max="4" width="48.90625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="21.5">
+      <c r="A2" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="8" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="8" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="8" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="9" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="8" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="9" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B16" s="7">
+        <v>1</v>
+      </c>
+      <c r="C16" s="7">
+        <v>31</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A10" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=newmutants" xr:uid="{46DD7046-6848-4DF0-AC48-E4A3C4B2AD0A}"/>
+    <hyperlink ref="A13" r:id="rId2" display="https://www.comicsbox.it/serie/comics/comicbook.php?collana=MGN&amp;codice=MGN_004" xr:uid="{EBE8D5A4-3889-4213-8408-4970CA60CDA6}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
   <dimension ref="A4:D63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+    <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
       <selection activeCell="A38" sqref="A38:XFD39"/>
     </sheetView>
   </sheetViews>
@@ -5433,7 +6011,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ECA439BA-2883-4A17-9D78-53C8ABE11209}">
   <dimension ref="A4:F32"/>
   <sheetViews>
@@ -5718,7 +6296,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED4A7413-140D-4E35-BC62-DC846E3AF88F}">
   <dimension ref="A4:F26"/>
   <sheetViews>
@@ -5916,7 +6494,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00CF5FAC-CDFC-416F-92FB-D0D5F204A05B}">
   <dimension ref="A4:E62"/>
   <sheetViews>
@@ -6326,7 +6904,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C44FEABB-B05F-4D60-821F-9AF147DCB06F}">
   <dimension ref="A4:D49"/>
   <sheetViews>
@@ -6650,7 +7228,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF627E6C-474F-4942-903D-0C9C4B75A390}">
   <dimension ref="A4:D39"/>
   <sheetViews>
@@ -6942,442 +7520,4 @@
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F678F1A-8AFC-434A-9739-5C97AFE9725F}">
-  <dimension ref="A4:E57"/>
-  <sheetViews>
-    <sheetView topLeftCell="A25" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
-  <cols>
-    <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="4" max="4" width="66.453125" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
-      <c r="A4" s="1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:1">
-      <c r="A5" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:1" ht="17.5">
-      <c r="A7" s="3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:1" ht="17.5">
-      <c r="A8" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="9" spans="1:1" ht="17.5">
-      <c r="A9" s="3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" ht="17.5">
-      <c r="A10" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" ht="17.5">
-      <c r="A11" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="12" spans="1:1" ht="18.5">
-      <c r="A12" s="4" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="13" spans="1:1" ht="17.5">
-      <c r="A13" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="15" spans="1:1">
-      <c r="A15" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:1">
-      <c r="A16" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" s="5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" s="6"/>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" s="5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B22" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B23" s="7">
-        <v>1</v>
-      </c>
-      <c r="C23" s="7">
-        <v>15</v>
-      </c>
-      <c r="D23" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B24" s="7">
-        <v>16</v>
-      </c>
-      <c r="C24" s="7">
-        <v>16</v>
-      </c>
-      <c r="D24" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B25" s="7">
-        <v>17</v>
-      </c>
-      <c r="C25" s="7">
-        <v>17</v>
-      </c>
-      <c r="D25" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B26" s="7">
-        <v>18</v>
-      </c>
-      <c r="C26" s="7">
-        <v>18</v>
-      </c>
-      <c r="D26" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B27" s="7">
-        <v>19</v>
-      </c>
-      <c r="C27" s="7">
-        <v>24</v>
-      </c>
-      <c r="D27" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B28" s="7">
-        <v>25</v>
-      </c>
-      <c r="C28" s="7">
-        <v>25</v>
-      </c>
-      <c r="D28" s="7" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B29" s="7">
-        <v>26</v>
-      </c>
-      <c r="C29" s="7">
-        <v>30</v>
-      </c>
-      <c r="D29" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B30" s="7">
-        <v>31</v>
-      </c>
-      <c r="C30" s="7">
-        <v>31</v>
-      </c>
-      <c r="D30" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E30" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B31" s="7">
-        <v>32</v>
-      </c>
-      <c r="C31" s="7">
-        <v>34</v>
-      </c>
-      <c r="D31" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="E31" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B32" s="7">
-        <v>35</v>
-      </c>
-      <c r="C32" s="7">
-        <v>35</v>
-      </c>
-      <c r="D32" s="7" t="s">
-        <v>54</v>
-      </c>
-      <c r="E32" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B33" s="7">
-        <v>36</v>
-      </c>
-      <c r="C33" s="7">
-        <v>37</v>
-      </c>
-      <c r="D33" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="E33" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B34" s="7">
-        <v>38</v>
-      </c>
-      <c r="C34" s="7">
-        <v>38</v>
-      </c>
-      <c r="D34" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="E34" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B35" s="7">
-        <v>39</v>
-      </c>
-      <c r="C35" s="7">
-        <v>43</v>
-      </c>
-      <c r="D35" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="E35" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B36" s="7">
-        <v>44</v>
-      </c>
-      <c r="C36" s="7">
-        <v>47</v>
-      </c>
-      <c r="D36" s="7" t="s">
-        <v>343</v>
-      </c>
-      <c r="E36" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B37" s="7">
-        <v>48</v>
-      </c>
-      <c r="C37" s="7">
-        <v>48</v>
-      </c>
-      <c r="D37" s="7" t="s">
-        <v>344</v>
-      </c>
-      <c r="E37" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B38" s="7">
-        <v>49</v>
-      </c>
-      <c r="C38" s="7">
-        <v>56</v>
-      </c>
-      <c r="D38" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="E38" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="21"/>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B40" s="7">
-        <v>67</v>
-      </c>
-      <c r="C40" s="7">
-        <v>67</v>
-      </c>
-      <c r="D40" s="7" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="B41" s="7">
-        <v>70</v>
-      </c>
-      <c r="C41" s="7">
-        <v>70</v>
-      </c>
-      <c r="D41" s="7" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" ht="21.5">
-      <c r="A43" s="1" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
-      <c r="A44" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5">
-      <c r="A46" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
-      <c r="A47" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
-      <c r="A48" s="8" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
-      <c r="A49" s="8" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5">
-      <c r="A50" s="8" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
-      <c r="A51" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
-      <c r="A52" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
-      <c r="A54" s="28">
-        <v>33725</v>
-      </c>
-      <c r="B54" s="7">
-        <v>1</v>
-      </c>
-      <c r="C54" s="7">
-        <v>1</v>
-      </c>
-      <c r="D54" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A55" s="29">
-        <v>34243</v>
-      </c>
-      <c r="B55" s="21">
-        <v>2</v>
-      </c>
-      <c r="C55" s="21">
-        <v>2</v>
-      </c>
-      <c r="D55" s="21" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A56" s="29">
-        <v>34608</v>
-      </c>
-      <c r="B56" s="21">
-        <v>3</v>
-      </c>
-      <c r="C56" s="21">
-        <v>3</v>
-      </c>
-      <c r="D56" s="21" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
-      <c r="A57" s="29">
-        <v>35034</v>
-      </c>
-      <c r="B57" s="21">
-        <v>1</v>
-      </c>
-      <c r="C57" s="21">
-        <v>1</v>
-      </c>
-      <c r="D57" s="21" t="s">
-        <v>349</v>
-      </c>
-      <c r="E57" s="21" t="s">
-        <v>350</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{1A56ADB5-3BCF-4665-BB75-7F35E466119C}"/>
-    <hyperlink ref="A51" r:id="rId2" display="https://www.comicsbox.it/serie/groups.php?name=xforce" xr:uid="{D13810DF-2CAA-4905-99D7-82FCAAE037FD}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C04237B-2A0D-4B8B-92A1-FDF2461BC28A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE81123-1D5A-4D82-9F4B-CF19294051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-410" yWindow="0" windowWidth="38620" windowHeight="20880" activeTab="2" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="425">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -1876,9 +1876,6 @@
     <t>incredibili X-Men #95</t>
   </si>
   <si>
-    <t>Gli Incredibili X-Men # 107</t>
-  </si>
-  <si>
     <t>Incredibili X-Men #98</t>
   </si>
   <si>
@@ -1888,9 +1885,6 @@
     <t>Incredibili X-Men #97</t>
   </si>
   <si>
-    <t>Incredibili X-Men da #97 a #98</t>
-  </si>
-  <si>
     <t>Incredibili X-Men #91</t>
   </si>
   <si>
@@ -1900,9 +1894,6 @@
     <t>Incredibili X-Men 123</t>
   </si>
   <si>
-    <t>Incredibili X-Men 106</t>
-  </si>
-  <si>
     <t>Incredibili X-Men 122</t>
   </si>
   <si>
@@ -1943,9 +1934,6 @@
   </si>
   <si>
     <t>Incredibili X-Men #94</t>
-  </si>
-  <si>
-    <t>Incredibili X-Men #99</t>
   </si>
   <si>
     <t>Marvel Crossover #20</t>
@@ -2036,6 +2024,12 @@
   </si>
   <si>
     <t>Nuovi Mutanti Play Press da #1 a #23</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #99 fino a #106</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men # da #97 a 107</t>
   </si>
 </sst>
 </file>
@@ -3263,7 +3257,7 @@
         <v>56</v>
       </c>
       <c r="D38" s="7" t="s">
-        <v>403</v>
+        <v>400</v>
       </c>
       <c r="E38" s="7" t="s">
         <v>22</v>
@@ -3278,7 +3272,7 @@
         <v>67</v>
       </c>
       <c r="D40" s="7" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
@@ -3289,7 +3283,7 @@
         <v>70</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="21.5">
@@ -4626,7 +4620,7 @@
     </row>
     <row r="34" spans="1:7" s="14" customFormat="1" ht="23.5">
       <c r="A34" s="13" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="C34" s="14">
         <v>3</v>
@@ -4670,7 +4664,7 @@
     </row>
     <row r="37" spans="1:7" ht="23.5">
       <c r="A37" s="13" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="C37" s="14">
         <v>1</v>
@@ -4680,10 +4674,10 @@
       </c>
       <c r="E37" s="16"/>
       <c r="F37" s="14" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="G37" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
     </row>
     <row r="38" spans="1:7" ht="23.5">
@@ -4730,7 +4724,7 @@
     </row>
     <row r="41" spans="1:7" ht="23.5">
       <c r="A41" s="13" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C41" s="14">
         <v>1</v>
@@ -4740,12 +4734,12 @@
       </c>
       <c r="E41" s="12"/>
       <c r="F41" s="14" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
     </row>
     <row r="42" spans="1:7" ht="23.5">
       <c r="A42" s="13" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="C42" s="14">
         <v>1</v>
@@ -4755,12 +4749,12 @@
       </c>
       <c r="E42" s="12"/>
       <c r="F42" s="14" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="1:7" ht="23.5">
       <c r="A43" s="13" t="s">
-        <v>405</v>
+        <v>402</v>
       </c>
       <c r="C43" s="14">
         <v>1</v>
@@ -4769,12 +4763,12 @@
         <v>35370</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>404</v>
+        <v>401</v>
       </c>
     </row>
     <row r="44" spans="1:7" ht="23.5">
       <c r="A44" s="13" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="C44" s="14">
         <v>1</v>
@@ -4784,7 +4778,7 @@
       </c>
       <c r="E44" s="12"/>
       <c r="F44" s="14" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="23.5">
@@ -4849,10 +4843,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
-  <dimension ref="A4:D69"/>
+  <dimension ref="A4:D66"/>
   <sheetViews>
-    <sheetView zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:XFD25"/>
+    <sheetView topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="D62" sqref="D62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5297,7 +5291,7 @@
         <v>331</v>
       </c>
       <c r="D56" s="7" t="s">
-        <v>402</v>
+        <v>399</v>
       </c>
     </row>
     <row r="57" spans="2:4" ht="21">
@@ -5330,7 +5324,7 @@
         <v>335</v>
       </c>
       <c r="D59" s="7" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
     </row>
     <row r="60" spans="2:4" s="22" customFormat="1" ht="21">
@@ -5341,7 +5335,7 @@
         <v>336</v>
       </c>
       <c r="D60" s="21" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="61" spans="2:4" ht="21">
@@ -5352,7 +5346,7 @@
         <v>337</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
     </row>
     <row r="62" spans="2:4" ht="21">
@@ -5361,67 +5355,40 @@
       <c r="D62" s="7"/>
     </row>
     <row r="63" spans="2:4" ht="21">
-      <c r="B63" s="7">
-        <v>345</v>
-      </c>
-      <c r="C63" s="7">
-        <v>345</v>
-      </c>
-      <c r="D63" s="7" t="s">
-        <v>406</v>
-      </c>
+      <c r="B63" s="7"/>
+      <c r="C63" s="7"/>
+      <c r="D63" s="7"/>
     </row>
     <row r="64" spans="2:4" ht="21">
-      <c r="B64" s="7"/>
-      <c r="C64" s="7"/>
-      <c r="D64" s="7"/>
+      <c r="B64" s="7">
+        <v>340</v>
+      </c>
+      <c r="C64" s="7">
+        <v>357</v>
+      </c>
+      <c r="D64" s="7" t="s">
+        <v>423</v>
+      </c>
     </row>
     <row r="65" spans="2:4" ht="21">
       <c r="B65" s="7">
-        <v>347</v>
+        <v>380</v>
       </c>
       <c r="C65" s="7">
-        <v>349</v>
+        <v>380</v>
       </c>
       <c r="D65" s="7" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
     </row>
     <row r="66" spans="2:4" ht="21">
-      <c r="B66" s="7"/>
-      <c r="C66" s="7"/>
-      <c r="D66" s="7"/>
-    </row>
-    <row r="67" spans="2:4" ht="21">
-      <c r="B67" s="7">
-        <v>356</v>
-      </c>
-      <c r="C67" s="7">
-        <v>357</v>
-      </c>
-      <c r="D67" s="7" t="s">
-        <v>392</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" ht="21">
-      <c r="B68" s="7">
-        <v>380</v>
-      </c>
-      <c r="C68" s="7">
-        <v>380</v>
-      </c>
-      <c r="D68" s="7" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" ht="21">
-      <c r="B69" s="7">
+      <c r="B66" s="7">
         <v>387</v>
       </c>
-      <c r="C69" s="7">
+      <c r="C66" s="7">
         <v>387</v>
       </c>
-      <c r="D69" s="7" t="s">
+      <c r="D66" s="7" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5437,7 +5404,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{175BF097-4CA4-43D5-9E77-3C62E1438D50}">
   <dimension ref="A2:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
+    <sheetView zoomScale="184" zoomScaleNormal="184" workbookViewId="0">
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
@@ -5450,7 +5417,7 @@
   <sheetData>
     <row r="2" spans="1:4" ht="21.5">
       <c r="A2" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -5460,17 +5427,17 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" s="8" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="8" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="8" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -5485,7 +5452,7 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" s="9" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -5495,7 +5462,7 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" s="9" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="7" customFormat="1" ht="21">
@@ -5506,7 +5473,7 @@
         <v>31</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
   </sheetData>
@@ -5520,10 +5487,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
-  <dimension ref="A4:D63"/>
+  <dimension ref="A4:D62"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD39"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39:XFD39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5786,7 +5753,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="33" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B33" s="23">
         <v>48</v>
       </c>
@@ -5794,10 +5761,10 @@
         <v>53</v>
       </c>
       <c r="D33" s="23" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B34" s="23">
         <v>54</v>
       </c>
@@ -5805,10 +5772,10 @@
         <v>54</v>
       </c>
       <c r="D34" s="23" t="s">
-        <v>408</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B35" s="23">
         <v>55</v>
       </c>
@@ -5816,10 +5783,10 @@
         <v>55</v>
       </c>
       <c r="D35" s="23" t="s">
-        <v>401</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B36" s="23">
         <v>56</v>
       </c>
@@ -5827,10 +5794,10 @@
         <v>56</v>
       </c>
       <c r="D36" s="23" t="s">
-        <v>411</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B37" s="23">
         <v>57</v>
       </c>
@@ -5838,166 +5805,155 @@
         <v>65</v>
       </c>
       <c r="D37" s="23" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="39" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B39" s="23">
         <v>67</v>
       </c>
       <c r="C39" s="23">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B40" s="23">
-        <v>76</v>
-      </c>
-      <c r="C40" s="23">
-        <v>77</v>
-      </c>
-      <c r="D40" s="23" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B41" s="23"/>
-      <c r="C41" s="23"/>
-      <c r="D41" s="23"/>
-    </row>
-    <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B40" s="23"/>
+      <c r="C40" s="23"/>
+      <c r="D40" s="23"/>
+    </row>
+    <row r="41" spans="1:4" s="24" customFormat="1" ht="21">
+      <c r="B41" s="23">
+        <v>96</v>
+      </c>
+      <c r="C41" s="23">
+        <v>96</v>
+      </c>
+      <c r="D41" s="23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B42" s="23">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C42" s="23">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="D42" s="23" t="s">
-        <v>393</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="24" customFormat="1" ht="21">
       <c r="B43" s="23">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C43" s="23">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D43" s="23" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" s="24" customFormat="1" ht="21">
-      <c r="B44" s="23">
-        <v>107</v>
-      </c>
-      <c r="C44" s="23">
-        <v>107</v>
-      </c>
-      <c r="D44" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="49" spans="1:4" ht="21.5">
-      <c r="A49" s="1" t="s">
+    <row r="48" spans="1:4" ht="21.5">
+      <c r="A48" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>1</v>
+    <row r="49" spans="1:4">
+      <c r="A49" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="8" t="s">
+        <v>303</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="8" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="8" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>305</v>
+        <v>31</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="8" t="s">
-        <v>32</v>
+      <c r="A56" s="9" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="9" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4">
-      <c r="A58" s="8" t="s">
+      <c r="A57" s="8" t="s">
         <v>102</v>
       </c>
     </row>
+    <row r="59" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B59" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>15</v>
+      </c>
+    </row>
     <row r="60" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B60" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>15</v>
+      <c r="A60" s="28">
+        <v>33725</v>
+      </c>
+      <c r="B60" s="7">
+        <v>1</v>
+      </c>
+      <c r="C60" s="7">
+        <v>1</v>
+      </c>
+      <c r="D60" s="7" t="s">
+        <v>306</v>
       </c>
     </row>
     <row r="61" spans="1:4" s="7" customFormat="1" ht="21">
       <c r="A61" s="28">
-        <v>33725</v>
+        <v>34243</v>
       </c>
       <c r="B61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C61" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D61" s="7" t="s">
-        <v>306</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A62" s="28">
-        <v>34243</v>
-      </c>
-      <c r="B62" s="7">
-        <v>2</v>
-      </c>
-      <c r="C62" s="7">
-        <v>2</v>
-      </c>
-      <c r="D62" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="23" customFormat="1" ht="21">
-      <c r="A63" s="30">
+    <row r="62" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A62" s="30">
         <v>34608</v>
       </c>
-      <c r="B63" s="23">
+      <c r="B62" s="23">
         <v>3</v>
       </c>
-      <c r="C63" s="23">
+      <c r="C62" s="23">
         <v>3</v>
       </c>
-      <c r="D63" s="23" t="s">
+      <c r="D62" s="23" t="s">
         <v>308</v>
       </c>
     </row>
@@ -6005,7 +5961,7 @@
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{C4D82E1F-7335-462D-B1D3-80644D45703B}"/>
     <hyperlink ref="C8" r:id="rId2" display="https://www.comicsbox.it/serie/XM_LGY" xr:uid="{DC06B115-7C34-4CE0-B14A-B8840E8C2816}"/>
-    <hyperlink ref="A57" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
+    <hyperlink ref="A56" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6282,7 +6238,7 @@
         <v>18</v>
       </c>
       <c r="D32" s="23" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="E32" s="30">
         <v>34486</v>
@@ -6450,7 +6406,7 @@
         <v>11</v>
       </c>
       <c r="D22" s="7" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="2:4" ht="21">
@@ -6461,7 +6417,7 @@
         <v>12</v>
       </c>
       <c r="D23" s="7" t="s">
-        <v>399</v>
+        <v>396</v>
       </c>
     </row>
     <row r="24" spans="2:4" ht="21">
@@ -6472,7 +6428,7 @@
         <v>14</v>
       </c>
       <c r="D24" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="26" spans="2:4" ht="21">
@@ -6483,7 +6439,7 @@
         <v>16</v>
       </c>
       <c r="D26" s="7" t="s">
-        <v>406</v>
+        <v>403</v>
       </c>
     </row>
   </sheetData>
@@ -6757,7 +6713,7 @@
         <v>126</v>
       </c>
       <c r="D41" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="E41" s="21"/>
     </row>
@@ -7478,7 +7434,7 @@
         <v>101</v>
       </c>
       <c r="D34" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
     </row>
     <row r="36" spans="2:4">
@@ -7489,7 +7445,7 @@
         <v>115</v>
       </c>
       <c r="D36" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
     </row>
     <row r="38" spans="2:4">
@@ -7500,7 +7456,7 @@
         <v>118</v>
       </c>
       <c r="D38" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="39" spans="2:4">
@@ -7511,7 +7467,7 @@
         <v>147</v>
       </c>
       <c r="D39" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
     </row>
   </sheetData>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8EE81123-1D5A-4D82-9F4B-CF19294051A3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3DB52F-38ED-4473-983E-428D6042E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="3" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="642" uniqueCount="425">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="644" uniqueCount="427">
   <si>
     <t>X-Force Vol 1</t>
   </si>
@@ -2026,10 +2026,16 @@
     <t>Nuovi Mutanti Play Press da #1 a #23</t>
   </si>
   <si>
-    <t>Incredibili X-Men #99 fino a #106</t>
-  </si>
-  <si>
-    <t>Gli Incredibili X-Men # da #97 a 107</t>
+    <t>Gli Incredibili X-Men # da #110 a 114</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #110 fino a #114</t>
+  </si>
+  <si>
+    <t>Gli Incredibili X-Men # da #97 a 109</t>
+  </si>
+  <si>
+    <t>Incredibili X-Men #99 fino a #109</t>
   </si>
 </sst>
 </file>
@@ -4843,10 +4849,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
-  <dimension ref="A4:D66"/>
+  <dimension ref="A4:D68"/>
   <sheetViews>
-    <sheetView topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="D62" sqref="D62"/>
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65:XFD65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5364,31 +5370,47 @@
         <v>340</v>
       </c>
       <c r="C64" s="7">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="D64" s="7" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="65" spans="2:4" ht="21">
-      <c r="B65" s="7">
-        <v>380</v>
-      </c>
-      <c r="C65" s="7">
-        <v>380</v>
-      </c>
-      <c r="D65" s="7" t="s">
-        <v>397</v>
-      </c>
+      <c r="B65" s="7"/>
+      <c r="C65" s="7"/>
+      <c r="D65" s="7"/>
     </row>
     <row r="66" spans="2:4" ht="21">
       <c r="B66" s="7">
+        <v>363</v>
+      </c>
+      <c r="C66" s="7">
+        <v>368</v>
+      </c>
+      <c r="D66" s="7" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" ht="21">
+      <c r="B67" s="7">
+        <v>380</v>
+      </c>
+      <c r="C67" s="7">
+        <v>380</v>
+      </c>
+      <c r="D67" s="7" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" ht="21">
+      <c r="B68" s="7">
         <v>387</v>
       </c>
-      <c r="C66" s="7">
+      <c r="C68" s="7">
         <v>387</v>
       </c>
-      <c r="D66" s="7" t="s">
+      <c r="D68" s="7" t="s">
         <v>381</v>
       </c>
     </row>
@@ -5487,10 +5509,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3E1E17F-65CD-450C-B7A4-4F84564DFE0C}">
-  <dimension ref="A4:D62"/>
+  <dimension ref="A4:D65"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39:XFD39"/>
+    <sheetView topLeftCell="A26" zoomScale="196" zoomScaleNormal="196" workbookViewId="0">
+      <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -5753,7 +5775,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="33" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B33" s="23">
         <v>48</v>
       </c>
@@ -5764,7 +5786,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B34" s="23">
         <v>54</v>
       </c>
@@ -5775,7 +5797,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B35" s="23">
         <v>55</v>
       </c>
@@ -5786,7 +5808,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="36" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B36" s="23">
         <v>56</v>
       </c>
@@ -5797,7 +5819,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B37" s="23">
         <v>57</v>
       </c>
@@ -5808,152 +5830,173 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="39" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B39" s="23">
         <v>67</v>
       </c>
       <c r="C39" s="23">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="D39" s="23" t="s">
-        <v>424</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4" s="24" customFormat="1" ht="21">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B41" s="23">
+    <row r="41" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B41" s="23"/>
+      <c r="C41" s="23"/>
+      <c r="D41" s="23"/>
+    </row>
+    <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B42" s="23">
+        <v>83</v>
+      </c>
+      <c r="C42" s="23">
+        <v>88</v>
+      </c>
+      <c r="D42" s="23" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B43" s="23"/>
+      <c r="C43" s="23"/>
+      <c r="D43" s="23"/>
+    </row>
+    <row r="44" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B44" s="23">
         <v>96</v>
       </c>
-      <c r="C41" s="23">
+      <c r="C44" s="23">
         <v>96</v>
       </c>
-      <c r="D41" s="23" t="s">
+      <c r="D44" s="23" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="42" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B42" s="23">
+    <row r="45" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B45" s="23">
         <v>99</v>
       </c>
-      <c r="C42" s="23">
+      <c r="C45" s="23">
         <v>99</v>
       </c>
-      <c r="D42" s="23" t="s">
+      <c r="D45" s="23" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="24" customFormat="1" ht="21">
-      <c r="B43" s="23">
+    <row r="46" spans="2:4" s="24" customFormat="1" ht="21">
+      <c r="B46" s="23">
         <v>107</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C46" s="23">
         <v>107</v>
       </c>
-      <c r="D43" s="23" t="s">
+      <c r="D46" s="23" t="s">
         <v>381</v>
       </c>
     </row>
-    <row r="48" spans="1:4" ht="21.5">
-      <c r="A48" s="1" t="s">
+    <row r="51" spans="1:4" ht="21.5">
+      <c r="A51" s="1" t="s">
         <v>302</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="8" t="s">
-        <v>303</v>
-      </c>
-    </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="8" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="8" t="s">
-        <v>305</v>
+      <c r="A52" s="2" t="s">
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="8" t="s">
-        <v>31</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="8" t="s">
-        <v>32</v>
+        <v>304</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="9" t="s">
-        <v>82</v>
+      <c r="A56" s="8" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="8" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="8" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="59" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="B59" s="7" t="s">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="B62" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C59" s="7" t="s">
+      <c r="C62" s="7" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="60" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A60" s="28">
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A63" s="28">
         <v>33725</v>
       </c>
-      <c r="B60" s="7">
-        <v>1</v>
-      </c>
-      <c r="C60" s="7">
-        <v>1</v>
-      </c>
-      <c r="D60" s="7" t="s">
+      <c r="B63" s="7">
+        <v>1</v>
+      </c>
+      <c r="C63" s="7">
+        <v>1</v>
+      </c>
+      <c r="D63" s="7" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="61" spans="1:4" s="7" customFormat="1" ht="21">
-      <c r="A61" s="28">
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="21">
+      <c r="A64" s="28">
         <v>34243</v>
       </c>
-      <c r="B61" s="7">
+      <c r="B64" s="7">
         <v>2</v>
       </c>
-      <c r="C61" s="7">
+      <c r="C64" s="7">
         <v>2</v>
       </c>
-      <c r="D61" s="7" t="s">
+      <c r="D64" s="7" t="s">
         <v>307</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="23" customFormat="1" ht="21">
-      <c r="A62" s="30">
+    <row r="65" spans="1:4" s="23" customFormat="1" ht="21">
+      <c r="A65" s="30">
         <v>34608</v>
       </c>
-      <c r="B62" s="23">
+      <c r="B65" s="23">
         <v>3</v>
       </c>
-      <c r="C62" s="23">
+      <c r="C65" s="23">
         <v>3</v>
       </c>
-      <c r="D62" s="23" t="s">
+      <c r="D65" s="23" t="s">
         <v>308</v>
       </c>
     </row>
@@ -5961,7 +6004,7 @@
   <hyperlinks>
     <hyperlink ref="A12" r:id="rId1" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{C4D82E1F-7335-462D-B1D3-80644D45703B}"/>
     <hyperlink ref="C8" r:id="rId2" display="https://www.comicsbox.it/serie/XM_LGY" xr:uid="{DC06B115-7C34-4CE0-B14A-B8840E8C2816}"/>
-    <hyperlink ref="A56" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
+    <hyperlink ref="A59" r:id="rId3" display="https://www.comicsbox.it/serie/groups.php?name=xmen" xr:uid="{6DC8BF83-5B74-4A9E-96AD-0483692A57F2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/01 - Mutanti.xlsx
+++ b/01 - Mutanti.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\datasets\repoprivatafumetti\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C3DB52F-38ED-4473-983E-428D6042E75C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D7CD27F-69E1-4BDF-86B8-293B45F67265}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="38620" windowHeight="21100" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
+    <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" activeTab="1" xr2:uid="{1338FCF8-35BB-4125-BC06-1B8E8F60BCCA}"/>
   </bookViews>
   <sheets>
     <sheet name="Riepilogo" sheetId="3" r:id="rId1"/>
@@ -2651,11 +2651,11 @@
       <selection activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="35.1796875" customWidth="1"/>
-    <col min="2" max="2" width="21.36328125" customWidth="1"/>
-    <col min="6" max="6" width="27.453125" customWidth="1"/>
+    <col min="1" max="1" width="35.17578125" customWidth="1"/>
+    <col min="2" max="2" width="21.3515625" customWidth="1"/>
+    <col min="6" max="6" width="27.46875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:6">
@@ -2975,14 +2975,14 @@
       <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="50" customWidth="1"/>
-    <col min="4" max="4" width="66.453125" customWidth="1"/>
-    <col min="5" max="5" width="39.08984375" customWidth="1"/>
+    <col min="4" max="4" width="66.46875" customWidth="1"/>
+    <col min="5" max="5" width="39.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
@@ -2992,37 +2992,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.5">
+    <row r="7" spans="1:1" ht="17.7">
       <c r="A7" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.5">
+    <row r="8" spans="1:1" ht="17.7">
       <c r="A8" s="3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.5">
+    <row r="9" spans="1:1" ht="17.7">
       <c r="A9" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.5">
+    <row r="10" spans="1:1" ht="17.7">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.5">
+    <row r="11" spans="1:1" ht="17.7">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.5">
+    <row r="12" spans="1:1" ht="18.350000000000001">
       <c r="A12" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.5">
+    <row r="13" spans="1:1" ht="17.7">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -3055,7 +3055,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="22" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
@@ -3063,7 +3063,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="23" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B23" s="7">
         <v>1</v>
       </c>
@@ -3074,7 +3074,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="24" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B24" s="7">
         <v>16</v>
       </c>
@@ -3085,7 +3085,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="25" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>17</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="26" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B26" s="7">
         <v>18</v>
       </c>
@@ -3107,7 +3107,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="27" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B27" s="7">
         <v>19</v>
       </c>
@@ -3118,7 +3118,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="28" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B28" s="7">
         <v>25</v>
       </c>
@@ -3129,7 +3129,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="29" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B29" s="7">
         <v>26</v>
       </c>
@@ -3143,7 +3143,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="30" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B30" s="7">
         <v>31</v>
       </c>
@@ -3157,7 +3157,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="31" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B31" s="7">
         <v>32</v>
       </c>
@@ -3171,7 +3171,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="32" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B32" s="7">
         <v>35</v>
       </c>
@@ -3185,7 +3185,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B33" s="7">
         <v>36</v>
       </c>
@@ -3199,7 +3199,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="34" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B34" s="7">
         <v>38</v>
       </c>
@@ -3213,7 +3213,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="35" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B35" s="7">
         <v>39</v>
       </c>
@@ -3227,7 +3227,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B36" s="7">
         <v>44</v>
       </c>
@@ -3241,7 +3241,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B37" s="7">
         <v>48</v>
       </c>
@@ -3255,7 +3255,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="38" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B38" s="7">
         <v>49</v>
       </c>
@@ -3269,8 +3269,8 @@
         <v>22</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1" ht="21"/>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="39" spans="1:5" s="7" customFormat="1" ht="20.7"/>
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B40" s="7">
         <v>67</v>
       </c>
@@ -3281,7 +3281,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B41" s="7">
         <v>70</v>
       </c>
@@ -3292,7 +3292,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="43" spans="1:5" ht="21.5">
+    <row r="43" spans="1:5" ht="21.35">
       <c r="A43" s="1" t="s">
         <v>309</v>
       </c>
@@ -3337,7 +3337,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="A54" s="28">
         <v>33725</v>
       </c>
@@ -3351,7 +3351,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="55" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="A55" s="29">
         <v>34243</v>
       </c>
@@ -3365,7 +3365,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="56" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="A56" s="29">
         <v>34608</v>
       </c>
@@ -3379,7 +3379,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="A57" s="29">
         <v>35034</v>
       </c>
@@ -3413,12 +3413,12 @@
       <selection activeCell="A18" sqref="A18:XFD18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="4" max="4" width="51" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:5" ht="21.5">
+    <row r="4" spans="1:5" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>209</v>
       </c>
@@ -3466,7 +3466,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="15" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3474,7 +3474,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="16" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -3485,7 +3485,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B17" s="23">
         <v>9</v>
       </c>
@@ -3496,7 +3496,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B18" s="23">
         <v>16</v>
       </c>
@@ -3507,7 +3507,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>17</v>
       </c>
@@ -3518,7 +3518,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="20" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B20" s="7">
         <v>20</v>
       </c>
@@ -3545,13 +3545,13 @@
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="23.36328125" customWidth="1"/>
-    <col min="4" max="4" width="47.1796875" customWidth="1"/>
+    <col min="1" max="1" width="23.3515625" customWidth="1"/>
+    <col min="4" max="4" width="47.17578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>242</v>
       </c>
@@ -3602,7 +3602,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="21" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="21" customFormat="1" ht="20.7">
       <c r="B16" s="21">
         <v>1</v>
       </c>
@@ -3621,7 +3621,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B17" s="23">
         <v>5</v>
       </c>
@@ -3632,7 +3632,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B18" s="23">
         <v>12</v>
       </c>
@@ -3659,14 +3659,14 @@
       <selection activeCell="A34" sqref="A34:XFD34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="33.6328125" customWidth="1"/>
+    <col min="1" max="1" width="33.64453125" customWidth="1"/>
     <col min="3" max="3" width="43" customWidth="1"/>
-    <col min="4" max="4" width="36.26953125" customWidth="1"/>
+    <col min="4" max="4" width="36.29296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" s="7" customFormat="1" ht="21">
+    <row r="4" spans="1:3" s="7" customFormat="1" ht="20.7">
       <c r="A4" s="7" t="s">
         <v>237</v>
       </c>
@@ -3677,7 +3677,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="21">
+    <row r="5" spans="1:3" ht="20.7">
       <c r="A5" t="s">
         <v>238</v>
       </c>
@@ -3688,7 +3688,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="21">
+    <row r="6" spans="1:3" ht="20.7">
       <c r="A6" t="s">
         <v>222</v>
       </c>
@@ -3699,7 +3699,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="21">
+    <row r="7" spans="1:3" ht="20.7">
       <c r="A7" t="s">
         <v>239</v>
       </c>
@@ -3710,7 +3710,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="21">
+    <row r="8" spans="1:3" ht="20.7">
       <c r="A8" t="s">
         <v>240</v>
       </c>
@@ -3721,7 +3721,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="21">
+    <row r="9" spans="1:3" ht="20.7">
       <c r="A9" t="s">
         <v>241</v>
       </c>
@@ -3732,7 +3732,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="21">
+    <row r="10" spans="1:3" ht="20.7">
       <c r="A10" t="s">
         <v>242</v>
       </c>
@@ -3743,7 +3743,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="21">
+    <row r="11" spans="1:3" ht="20.7">
       <c r="A11" t="s">
         <v>221</v>
       </c>
@@ -3754,7 +3754,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="21">
+    <row r="12" spans="1:3" ht="20.7">
       <c r="A12" t="s">
         <v>243</v>
       </c>
@@ -3765,7 +3765,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="13" spans="1:3" ht="21">
+    <row r="13" spans="1:3" ht="20.7">
       <c r="A13" t="s">
         <v>222</v>
       </c>
@@ -3776,7 +3776,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="21">
+    <row r="14" spans="1:3" ht="20.7">
       <c r="A14" t="s">
         <v>244</v>
       </c>
@@ -3787,7 +3787,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="15" spans="1:3" ht="21">
+    <row r="15" spans="1:3" ht="20.7">
       <c r="A15" t="s">
         <v>243</v>
       </c>
@@ -3798,7 +3798,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="16" spans="1:3" ht="21">
+    <row r="16" spans="1:3" ht="20.7">
       <c r="A16" t="s">
         <v>239</v>
       </c>
@@ -3809,7 +3809,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="17" spans="1:3" ht="21">
+    <row r="17" spans="1:3" ht="20.7">
       <c r="A17" t="s">
         <v>238</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="18" spans="1:3" ht="21">
+    <row r="18" spans="1:3" ht="20.7">
       <c r="A18" t="s">
         <v>240</v>
       </c>
@@ -3831,7 +3831,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="19" spans="1:3" ht="21">
+    <row r="19" spans="1:3" ht="20.7">
       <c r="A19" t="s">
         <v>221</v>
       </c>
@@ -3842,7 +3842,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="20" spans="1:3" ht="21">
+    <row r="20" spans="1:3" ht="20.7">
       <c r="A20" t="s">
         <v>241</v>
       </c>
@@ -3853,7 +3853,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="21" spans="1:3" ht="21">
+    <row r="21" spans="1:3" ht="20.7">
       <c r="A21" t="s">
         <v>242</v>
       </c>
@@ -3864,7 +3864,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="22" spans="1:3" ht="21">
+    <row r="22" spans="1:3" ht="20.7">
       <c r="A22" t="s">
         <v>221</v>
       </c>
@@ -3875,7 +3875,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="1:3" ht="21">
+    <row r="23" spans="1:3" ht="20.7">
       <c r="A23" t="s">
         <v>241</v>
       </c>
@@ -3886,7 +3886,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="24" spans="1:3" ht="21">
+    <row r="24" spans="1:3" ht="20.7">
       <c r="A24" t="s">
         <v>222</v>
       </c>
@@ -3897,7 +3897,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="25" spans="1:3" ht="21">
+    <row r="25" spans="1:3" ht="20.7">
       <c r="A25" t="s">
         <v>243</v>
       </c>
@@ -3908,7 +3908,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="26" spans="1:3" ht="21">
+    <row r="26" spans="1:3" ht="20.7">
       <c r="A26" t="s">
         <v>242</v>
       </c>
@@ -3919,7 +3919,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="27" spans="1:3" ht="21">
+    <row r="27" spans="1:3" ht="20.7">
       <c r="A27" t="s">
         <v>240</v>
       </c>
@@ -3930,7 +3930,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="28" spans="1:3" ht="21">
+    <row r="28" spans="1:3" ht="20.7">
       <c r="A28" t="s">
         <v>238</v>
       </c>
@@ -3941,7 +3941,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="29" spans="1:3" ht="21">
+    <row r="29" spans="1:3" ht="20.7">
       <c r="A29" t="s">
         <v>239</v>
       </c>
@@ -3952,7 +3952,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="30" spans="1:3" ht="21">
+    <row r="30" spans="1:3" ht="20.7">
       <c r="A30" t="s">
         <v>222</v>
       </c>
@@ -3963,7 +3963,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="31" spans="1:3" ht="21">
+    <row r="31" spans="1:3" ht="20.7">
       <c r="A31" t="s">
         <v>246</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="32" spans="1:3" s="24" customFormat="1" ht="21">
+    <row r="32" spans="1:3" s="24" customFormat="1" ht="20.7">
       <c r="A32" s="24" t="s">
         <v>238</v>
       </c>
@@ -3985,7 +3985,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="33" spans="1:4" ht="21">
+    <row r="33" spans="1:4" ht="20.7">
       <c r="A33" t="s">
         <v>239</v>
       </c>
@@ -3996,7 +3996,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="34" spans="1:4" s="24" customFormat="1" ht="21">
+    <row r="34" spans="1:4" s="24" customFormat="1" ht="20.7">
       <c r="A34" s="24" t="s">
         <v>242</v>
       </c>
@@ -4007,7 +4007,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="21">
+    <row r="35" spans="1:4" ht="20.7">
       <c r="A35" t="s">
         <v>221</v>
       </c>
@@ -4018,7 +4018,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21">
+    <row r="36" spans="1:4" ht="20.7">
       <c r="A36" t="s">
         <v>241</v>
       </c>
@@ -4029,7 +4029,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="37" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="37" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A37" s="22" t="s">
         <v>240</v>
       </c>
@@ -4040,7 +4040,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="38" spans="1:4" ht="21">
+    <row r="38" spans="1:4" ht="20.7">
       <c r="A38" t="s">
         <v>243</v>
       </c>
@@ -4051,7 +4051,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="39" spans="1:4" ht="21">
+    <row r="39" spans="1:4" ht="20.7">
       <c r="A39" t="s">
         <v>254</v>
       </c>
@@ -4062,7 +4062,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="40" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="40" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A40" s="22" t="s">
         <v>254</v>
       </c>
@@ -4073,7 +4073,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="41" spans="1:4" ht="21">
+    <row r="41" spans="1:4" ht="20.7">
       <c r="A41" t="s">
         <v>242</v>
       </c>
@@ -4084,7 +4084,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="42" spans="1:4" ht="21">
+    <row r="42" spans="1:4" ht="20.7">
       <c r="A42" t="s">
         <v>256</v>
       </c>
@@ -4095,7 +4095,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="21">
+    <row r="43" spans="1:4" ht="20.7">
       <c r="A43" t="s">
         <v>246</v>
       </c>
@@ -4106,7 +4106,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="44" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="44" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A44" s="27" t="s">
         <v>259</v>
       </c>
@@ -4117,7 +4117,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="22" customFormat="1" ht="28">
+    <row r="45" spans="1:4" s="22" customFormat="1" ht="27.35">
       <c r="A45" s="27" t="s">
         <v>260</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="46" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="46" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A46" s="27" t="s">
         <v>261</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="47" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A47" s="27" t="s">
         <v>264</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="48" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A48" s="27" t="s">
         <v>266</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="49" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A49" s="27" t="s">
         <v>267</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="50" spans="1:4" s="22" customFormat="1" ht="21">
+    <row r="50" spans="1:4" s="22" customFormat="1" ht="20.7">
       <c r="A50" s="27" t="s">
         <v>268</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21">
+    <row r="51" spans="1:4" ht="20.7">
       <c r="A51" s="27" t="s">
         <v>270</v>
       </c>
@@ -4225,16 +4225,16 @@
       <selection activeCell="F34" sqref="F34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="21"/>
+  <sheetFormatPr defaultRowHeight="20.7"/>
   <cols>
-    <col min="1" max="1" width="44.90625" style="13" customWidth="1"/>
-    <col min="3" max="3" width="24.81640625" customWidth="1"/>
-    <col min="4" max="4" width="11.08984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="74.1796875" customWidth="1"/>
+    <col min="1" max="1" width="44.87890625" style="13" customWidth="1"/>
+    <col min="3" max="3" width="24.8203125" customWidth="1"/>
+    <col min="4" max="4" width="11.05859375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="74.17578125" customWidth="1"/>
     <col min="7" max="7" width="40" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="10" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="10" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A10" s="14" t="s">
         <v>116</v>
       </c>
@@ -4249,7 +4249,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="11" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A11" s="14" t="s">
         <v>119</v>
       </c>
@@ -4267,7 +4267,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="12" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A12" s="14" t="s">
         <v>121</v>
       </c>
@@ -4285,7 +4285,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="13" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="13" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A13" s="14" t="s">
         <v>121</v>
       </c>
@@ -4303,7 +4303,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="14" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="14" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A14" s="14" t="s">
         <v>124</v>
       </c>
@@ -4321,7 +4321,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="15" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="15" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A15" s="14" t="s">
         <v>127</v>
       </c>
@@ -4339,7 +4339,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="16" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="16" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A16" s="14" t="s">
         <v>130</v>
       </c>
@@ -4357,7 +4357,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="17" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="17" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A17" s="14" t="s">
         <v>130</v>
       </c>
@@ -4375,7 +4375,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="18" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A18" s="14" t="s">
         <v>133</v>
       </c>
@@ -4393,13 +4393,13 @@
         <v>134</v>
       </c>
     </row>
-    <row r="19" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="19" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A19" s="14">
         <v>2</v>
       </c>
       <c r="E19" s="15"/>
     </row>
-    <row r="20" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="20" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A20" s="14" t="s">
         <v>94</v>
       </c>
@@ -4414,7 +4414,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="21" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="21" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A21" s="14" t="s">
         <v>139</v>
       </c>
@@ -4432,7 +4432,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="22" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="22" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A22" s="14" t="s">
         <v>112</v>
       </c>
@@ -4447,7 +4447,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="23" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A23" s="14" t="s">
         <v>136</v>
       </c>
@@ -4462,7 +4462,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="24" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="24" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A24" s="14" t="s">
         <v>141</v>
       </c>
@@ -4480,7 +4480,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="25" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="25" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A25" s="14" t="s">
         <v>143</v>
       </c>
@@ -4495,7 +4495,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="26" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="26" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A26" s="14" t="s">
         <v>147</v>
       </c>
@@ -4513,7 +4513,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="27" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A27" s="14" t="s">
         <v>110</v>
       </c>
@@ -4531,7 +4531,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="28" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="28" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A28" s="14" t="s">
         <v>152</v>
       </c>
@@ -4546,7 +4546,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="29" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="29" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A29" s="14" t="s">
         <v>154</v>
       </c>
@@ -4561,7 +4561,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="30" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="30" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A30" s="14" t="s">
         <v>77</v>
       </c>
@@ -4576,7 +4576,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="31" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="31" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A31" s="14" t="s">
         <v>136</v>
       </c>
@@ -4594,7 +4594,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="32" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="32" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A32" s="13" t="s">
         <v>76</v>
       </c>
@@ -4609,7 +4609,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="33" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="33" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A33" s="13" t="s">
         <v>192</v>
       </c>
@@ -4624,7 +4624,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="34" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="34" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A34" s="13" t="s">
         <v>412</v>
       </c>
@@ -4639,7 +4639,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="35" spans="1:7" s="14" customFormat="1" ht="23.5">
+    <row r="35" spans="1:7" s="14" customFormat="1" ht="24">
       <c r="A35" s="13" t="s">
         <v>75</v>
       </c>
@@ -4654,7 +4654,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="23.5">
+    <row r="36" spans="1:7" ht="24">
       <c r="A36" s="13" t="s">
         <v>223</v>
       </c>
@@ -4668,7 +4668,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="23.5">
+    <row r="37" spans="1:7" ht="24">
       <c r="A37" s="13" t="s">
         <v>392</v>
       </c>
@@ -4686,7 +4686,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="23.5">
+    <row r="38" spans="1:7" ht="24">
       <c r="A38" s="13" t="s">
         <v>225</v>
       </c>
@@ -4700,7 +4700,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="23.5">
+    <row r="39" spans="1:7" ht="24">
       <c r="A39" s="13" t="s">
         <v>314</v>
       </c>
@@ -4714,7 +4714,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="23.5">
+    <row r="40" spans="1:7" ht="24">
       <c r="A40" s="13" t="s">
         <v>350</v>
       </c>
@@ -4728,7 +4728,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="23.5">
+    <row r="41" spans="1:7" ht="24">
       <c r="A41" s="13" t="s">
         <v>405</v>
       </c>
@@ -4743,7 +4743,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="23.5">
+    <row r="42" spans="1:7" ht="24">
       <c r="A42" s="13" t="s">
         <v>406</v>
       </c>
@@ -4758,7 +4758,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="23.5">
+    <row r="43" spans="1:7" ht="24">
       <c r="A43" s="13" t="s">
         <v>402</v>
       </c>
@@ -4772,7 +4772,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="23.5">
+    <row r="44" spans="1:7" ht="24">
       <c r="A44" s="13" t="s">
         <v>388</v>
       </c>
@@ -4787,7 +4787,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="23.5">
+    <row r="46" spans="1:7" ht="24">
       <c r="A46" s="1" t="s">
         <v>375</v>
       </c>
@@ -4823,7 +4823,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="23.5">
+    <row r="48" spans="1:7" ht="24">
       <c r="A48" s="13" t="s">
         <v>146</v>
       </c>
@@ -4851,17 +4851,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84D4B9CE-28B9-4ED0-83FC-96CADAC318F6}">
   <dimension ref="A4:D68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A47" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65:XFD65"/>
+    <sheetView tabSelected="1" topLeftCell="A26" zoomScale="53" zoomScaleNormal="53" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60:XFD60"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="55.1796875" customWidth="1"/>
-    <col min="4" max="4" width="51.81640625" customWidth="1"/>
+    <col min="1" max="1" width="55.17578125" customWidth="1"/>
+    <col min="4" max="4" width="51.8203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>81</v>
       </c>
@@ -4871,37 +4871,37 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:1" ht="17.5">
+    <row r="7" spans="1:1" ht="17.7">
       <c r="A7" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:1" ht="17.5">
+    <row r="8" spans="1:1" ht="17.7">
       <c r="A8" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="9" spans="1:1" ht="17.5">
+    <row r="9" spans="1:1" ht="17.7">
       <c r="A9" s="3" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="10" spans="1:1" ht="17.5">
+    <row r="10" spans="1:1" ht="17.7">
       <c r="A10" s="3" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:1" ht="17.5">
+    <row r="11" spans="1:1" ht="17.7">
       <c r="A11" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:1" ht="18.5">
+    <row r="12" spans="1:1" ht="18.350000000000001">
       <c r="A12" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="13" spans="1:1" ht="17.5">
+    <row r="13" spans="1:1" ht="17.7">
       <c r="A13" s="3" t="s">
         <v>8</v>
       </c>
@@ -4939,7 +4939,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B23" s="7" t="s">
         <v>14</v>
       </c>
@@ -4947,7 +4947,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B24" s="7">
         <v>-1</v>
       </c>
@@ -4958,7 +4958,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="25" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>1</v>
       </c>
@@ -4969,7 +4969,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="26" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B26" s="7">
         <v>54</v>
       </c>
@@ -4981,7 +4981,7 @@
       </c>
     </row>
     <row r="27" spans="1:4" s="20" customFormat="1"/>
-    <row r="28" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="28" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B28" s="7">
         <v>94</v>
       </c>
@@ -4992,7 +4992,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="29" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B29" s="7">
         <v>132</v>
       </c>
@@ -5003,7 +5003,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="30" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B30" s="7">
         <v>159</v>
       </c>
@@ -5014,7 +5014,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B31" s="7">
         <v>176</v>
       </c>
@@ -5025,7 +5025,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21">
+    <row r="32" spans="1:4" ht="20.7">
       <c r="B32" s="7">
         <v>194</v>
       </c>
@@ -5036,7 +5036,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="33" spans="2:4" ht="21">
+    <row r="33" spans="2:4" ht="20.7">
       <c r="B33" s="7">
         <v>244</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="34" spans="2:4" ht="21">
+    <row r="34" spans="2:4" ht="20.7">
       <c r="B34" s="7">
         <v>248</v>
       </c>
@@ -5058,7 +5058,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="35" spans="2:4" ht="21">
+    <row r="35" spans="2:4" ht="20.7">
       <c r="B35" s="7">
         <v>257</v>
       </c>
@@ -5069,7 +5069,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="36" spans="2:4" ht="21">
+    <row r="36" spans="2:4" ht="20.7">
       <c r="B36" s="7">
         <v>262</v>
       </c>
@@ -5080,7 +5080,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="37" spans="2:4" ht="21">
+    <row r="37" spans="2:4" ht="20.7">
       <c r="B37" s="7">
         <v>270</v>
       </c>
@@ -5091,7 +5091,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="38" spans="2:4" ht="21">
+    <row r="38" spans="2:4" ht="20.7">
       <c r="B38" s="7">
         <v>273</v>
       </c>
@@ -5102,7 +5102,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="39" spans="2:4" ht="21">
+    <row r="39" spans="2:4" ht="20.7">
       <c r="B39" s="7">
         <v>278</v>
       </c>
@@ -5113,7 +5113,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="40" spans="2:4" ht="21">
+    <row r="40" spans="2:4" ht="20.7">
       <c r="B40" s="7">
         <v>281</v>
       </c>
@@ -5124,7 +5124,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="41" spans="2:4" ht="21">
+    <row r="41" spans="2:4" ht="20.7">
       <c r="B41" s="7">
         <v>294</v>
       </c>
@@ -5135,7 +5135,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="2:4" ht="21">
+    <row r="42" spans="2:4" ht="20.7">
       <c r="B42" s="7">
         <v>295</v>
       </c>
@@ -5146,7 +5146,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="43" spans="2:4" ht="21">
+    <row r="43" spans="2:4" ht="20.7">
       <c r="B43" s="7">
         <v>296</v>
       </c>
@@ -5157,7 +5157,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="44" spans="2:4" ht="21">
+    <row r="44" spans="2:4" ht="20.7">
       <c r="B44" s="7">
         <v>297</v>
       </c>
@@ -5168,7 +5168,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="45" spans="2:4" ht="21">
+    <row r="45" spans="2:4" ht="20.7">
       <c r="B45" s="7">
         <v>300</v>
       </c>
@@ -5179,7 +5179,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="46" spans="2:4" ht="21">
+    <row r="46" spans="2:4" ht="20.7">
       <c r="B46" s="7">
         <v>301</v>
       </c>
@@ -5190,7 +5190,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="47" spans="2:4" ht="21">
+    <row r="47" spans="2:4" ht="20.7">
       <c r="B47" s="7">
         <v>305</v>
       </c>
@@ -5201,7 +5201,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="2:4" ht="21">
+    <row r="48" spans="2:4" ht="20.7">
       <c r="B48" s="7">
         <v>307</v>
       </c>
@@ -5212,7 +5212,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="21">
+    <row r="49" spans="2:4" ht="20.7">
       <c r="B49" s="7">
         <v>308</v>
       </c>
@@ -5223,7 +5223,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="50" spans="2:4" ht="21">
+    <row r="50" spans="2:4" ht="20.7">
       <c r="B50" s="7">
         <v>316</v>
       </c>
@@ -5234,7 +5234,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="51" spans="2:4" ht="21">
+    <row r="51" spans="2:4" ht="20.7">
       <c r="B51" s="7">
         <v>318</v>
       </c>
@@ -5245,7 +5245,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="21">
+    <row r="52" spans="2:4" ht="20.7">
       <c r="B52" s="7">
         <v>320</v>
       </c>
@@ -5256,7 +5256,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="53" spans="2:4" ht="21">
+    <row r="53" spans="2:4" ht="20.7">
       <c r="B53" s="7">
         <v>321</v>
       </c>
@@ -5267,7 +5267,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="54" spans="2:4" ht="21">
+    <row r="54" spans="2:4" ht="20.7">
       <c r="B54" s="7">
         <v>322</v>
       </c>
@@ -5278,7 +5278,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="55" spans="2:4" ht="21">
+    <row r="55" spans="2:4" ht="20.7">
       <c r="B55" s="7">
         <v>328</v>
       </c>
@@ -5289,7 +5289,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="56" spans="2:4" ht="21">
+    <row r="56" spans="2:4" ht="20.7">
       <c r="B56" s="7">
         <v>329</v>
       </c>
@@ -5300,7 +5300,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="57" spans="2:4" ht="21">
+    <row r="57" spans="2:4" ht="20.7">
       <c r="B57" s="7">
         <v>332</v>
       </c>
@@ -5311,7 +5311,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="58" spans="2:4" ht="21">
+    <row r="58" spans="2:4" ht="20.7">
       <c r="B58" s="7">
         <v>333</v>
       </c>
@@ -5322,7 +5322,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="59" spans="2:4" ht="21">
+    <row r="59" spans="2:4" ht="20.7">
       <c r="B59" s="7">
         <v>335</v>
       </c>
@@ -5333,18 +5333,18 @@
         <v>409</v>
       </c>
     </row>
-    <row r="60" spans="2:4" s="22" customFormat="1" ht="21">
-      <c r="B60" s="21">
+    <row r="60" spans="2:4" s="24" customFormat="1" ht="20.7">
+      <c r="B60" s="23">
         <v>336</v>
       </c>
-      <c r="C60" s="21">
+      <c r="C60" s="23">
         <v>336</v>
       </c>
-      <c r="D60" s="21" t="s">
+      <c r="D60" s="23" t="s">
         <v>410</v>
       </c>
     </row>
-    <row r="61" spans="2:4" ht="21">
+    <row r="61" spans="2:4" ht="20.7">
       <c r="B61" s="7">
         <v>337</v>
       </c>
@@ -5355,17 +5355,17 @@
         <v>395</v>
       </c>
     </row>
-    <row r="62" spans="2:4" ht="21">
+    <row r="62" spans="2:4" ht="20.7">
       <c r="B62" s="7"/>
       <c r="C62" s="7"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="2:4" ht="21">
+    <row r="63" spans="2:4" ht="20.7">
       <c r="B63" s="7"/>
       <c r="C63" s="7"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="2:4" ht="21">
+    <row r="64" spans="2:4" ht="20.7">
       <c r="B64" s="7">
         <v>340</v>
       </c>
@@ -5376,12 +5376,12 @@
         <v>426</v>
       </c>
     </row>
-    <row r="65" spans="2:4" ht="21">
+    <row r="65" spans="2:4" ht="20.7">
       <c r="B65" s="7"/>
       <c r="C65" s="7"/>
       <c r="D65" s="7"/>
     </row>
-    <row r="66" spans="2:4" ht="21">
+    <row r="66" spans="2:4" ht="20.7">
       <c r="B66" s="7">
         <v>363</v>
       </c>
@@ -5392,7 +5392,7 @@
         <v>424</v>
       </c>
     </row>
-    <row r="67" spans="2:4" ht="21">
+    <row r="67" spans="2:4" ht="20.7">
       <c r="B67" s="7">
         <v>380</v>
       </c>
@@ -5403,7 +5403,7 @@
         <v>397</v>
       </c>
     </row>
-    <row r="68" spans="2:4" ht="21">
+    <row r="68" spans="2:4" ht="20.7">
       <c r="B68" s="7">
         <v>387</v>
       </c>
@@ -5430,14 +5430,14 @@
       <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="34.54296875" customWidth="1"/>
+    <col min="1" max="1" width="34.52734375" customWidth="1"/>
     <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="48.90625" customWidth="1"/>
+    <col min="4" max="4" width="48.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:4" ht="21.5">
+    <row r="2" spans="1:4" ht="21.35">
       <c r="A2" s="1" t="s">
         <v>416</v>
       </c>
@@ -5487,7 +5487,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B16" s="7">
         <v>1</v>
       </c>
@@ -5515,13 +5515,13 @@
       <selection activeCell="A41" sqref="A41:XFD41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="20.1796875" customWidth="1"/>
-    <col min="4" max="4" width="62.08984375" customWidth="1"/>
+    <col min="1" max="1" width="20.17578125" customWidth="1"/>
+    <col min="4" max="4" width="62.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:4" ht="21.5">
+    <row r="4" spans="1:4" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>176</v>
       </c>
@@ -5580,7 +5580,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="15" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="15" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B15" s="7" t="s">
         <v>14</v>
       </c>
@@ -5588,7 +5588,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="16" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B16" s="7">
         <v>-1</v>
       </c>
@@ -5599,7 +5599,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B17" s="7">
         <v>1</v>
       </c>
@@ -5610,7 +5610,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B18" s="7">
         <v>6</v>
       </c>
@@ -5621,7 +5621,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>8</v>
       </c>
@@ -5632,7 +5632,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="20" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B20" s="7">
         <v>14</v>
       </c>
@@ -5643,7 +5643,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="21" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B21" s="7">
         <v>15</v>
       </c>
@@ -5654,7 +5654,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="22" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7">
         <v>16</v>
       </c>
@@ -5665,7 +5665,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="21">
+    <row r="23" spans="2:4" ht="20.7">
       <c r="B23" s="7">
         <v>17</v>
       </c>
@@ -5676,7 +5676,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="21">
+    <row r="24" spans="2:4" ht="20.7">
       <c r="B24" s="7">
         <v>26</v>
       </c>
@@ -5687,7 +5687,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="25" spans="2:4" ht="21">
+    <row r="25" spans="2:4" ht="20.7">
       <c r="B25" s="7">
         <v>27</v>
       </c>
@@ -5698,7 +5698,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="21">
+    <row r="26" spans="2:4" ht="20.7">
       <c r="B26" s="7">
         <v>28</v>
       </c>
@@ -5709,7 +5709,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="21">
+    <row r="27" spans="2:4" ht="20.7">
       <c r="B27" s="7">
         <v>34</v>
       </c>
@@ -5720,7 +5720,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="28" spans="2:4" ht="21">
+    <row r="28" spans="2:4" ht="20.7">
       <c r="B28" s="7">
         <v>35</v>
       </c>
@@ -5731,7 +5731,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="21">
+    <row r="29" spans="2:4" ht="20.7">
       <c r="B29" s="7">
         <v>37</v>
       </c>
@@ -5742,7 +5742,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="30" spans="2:4" ht="21">
+    <row r="30" spans="2:4" ht="20.7">
       <c r="B30" s="7">
         <v>39</v>
       </c>
@@ -5753,7 +5753,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="21">
+    <row r="31" spans="2:4" ht="20.7">
       <c r="B31" s="7">
         <v>40</v>
       </c>
@@ -5764,7 +5764,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="21">
+    <row r="32" spans="2:4" ht="20.7">
       <c r="B32" s="7">
         <v>42</v>
       </c>
@@ -5775,7 +5775,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="33" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="33" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B33" s="23">
         <v>48</v>
       </c>
@@ -5786,7 +5786,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="34" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="34" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B34" s="23">
         <v>54</v>
       </c>
@@ -5797,7 +5797,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="35" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="35" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B35" s="23">
         <v>55</v>
       </c>
@@ -5808,7 +5808,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="36" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="36" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B36" s="23">
         <v>56</v>
       </c>
@@ -5819,7 +5819,7 @@
         <v>407</v>
       </c>
     </row>
-    <row r="37" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="37" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B37" s="23">
         <v>57</v>
       </c>
@@ -5830,12 +5830,12 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="38" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B38" s="23"/>
       <c r="C38" s="23"/>
       <c r="D38" s="23"/>
     </row>
-    <row r="39" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="39" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B39" s="23">
         <v>67</v>
       </c>
@@ -5846,17 +5846,17 @@
         <v>425</v>
       </c>
     </row>
-    <row r="40" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="40" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B40" s="23"/>
       <c r="C40" s="23"/>
       <c r="D40" s="23"/>
     </row>
-    <row r="41" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="41" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B41" s="23"/>
       <c r="C41" s="23"/>
       <c r="D41" s="23"/>
     </row>
-    <row r="42" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="42" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B42" s="23">
         <v>83</v>
       </c>
@@ -5867,12 +5867,12 @@
         <v>423</v>
       </c>
     </row>
-    <row r="43" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="43" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B43" s="23"/>
       <c r="C43" s="23"/>
       <c r="D43" s="23"/>
     </row>
-    <row r="44" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="44" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B44" s="23">
         <v>96</v>
       </c>
@@ -5883,7 +5883,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="45" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="45" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B45" s="23">
         <v>99</v>
       </c>
@@ -5894,7 +5894,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="46" spans="2:4" s="24" customFormat="1" ht="21">
+    <row r="46" spans="2:4" s="24" customFormat="1" ht="20.7">
       <c r="B46" s="23">
         <v>107</v>
       </c>
@@ -5905,7 +5905,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="51" spans="1:4" ht="21.5">
+    <row r="51" spans="1:4" ht="21.35">
       <c r="A51" s="1" t="s">
         <v>302</v>
       </c>
@@ -5950,7 +5950,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="62" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="62" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B62" s="7" t="s">
         <v>14</v>
       </c>
@@ -5958,7 +5958,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="63" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="63" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="A63" s="28">
         <v>33725</v>
       </c>
@@ -5972,7 +5972,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="64" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="64" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="A64" s="28">
         <v>34243</v>
       </c>
@@ -5986,7 +5986,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="65" spans="1:4" s="23" customFormat="1" ht="21">
+    <row r="65" spans="1:4" s="23" customFormat="1" ht="20.7">
       <c r="A65" s="30">
         <v>34608</v>
       </c>
@@ -6018,14 +6018,14 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="45.26953125" customWidth="1"/>
-    <col min="4" max="4" width="93.7265625" customWidth="1"/>
-    <col min="5" max="5" width="19.08984375" customWidth="1"/>
+    <col min="1" max="1" width="45.29296875" customWidth="1"/>
+    <col min="4" max="4" width="93.703125" customWidth="1"/>
+    <col min="5" max="5" width="19.05859375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>98</v>
       </c>
@@ -6080,7 +6080,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="18" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B18" s="7" t="s">
         <v>14</v>
       </c>
@@ -6088,7 +6088,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>3</v>
       </c>
@@ -6102,7 +6102,7 @@
         <v>1981</v>
       </c>
     </row>
-    <row r="20" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="20" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B20" s="7">
         <v>4</v>
       </c>
@@ -6116,7 +6116,7 @@
         <v>1982</v>
       </c>
     </row>
-    <row r="21" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="21" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B21" s="7">
         <v>6</v>
       </c>
@@ -6133,7 +6133,7 @@
         <v>1984</v>
       </c>
     </row>
-    <row r="22" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="22" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7">
         <v>8</v>
       </c>
@@ -6147,7 +6147,7 @@
         <v>1985</v>
       </c>
     </row>
-    <row r="23" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="23" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B23" s="7">
         <v>9</v>
       </c>
@@ -6161,7 +6161,7 @@
         <v>31382</v>
       </c>
     </row>
-    <row r="24" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="24" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B24" s="7">
         <v>10</v>
       </c>
@@ -6175,7 +6175,7 @@
         <v>31747</v>
       </c>
     </row>
-    <row r="25" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="25" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>11</v>
       </c>
@@ -6189,7 +6189,7 @@
         <v>32021</v>
       </c>
     </row>
-    <row r="26" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="26" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B26" s="7">
         <v>12</v>
       </c>
@@ -6203,7 +6203,7 @@
         <v>32417</v>
       </c>
     </row>
-    <row r="27" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="27" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B27" s="7">
         <v>13</v>
       </c>
@@ -6217,7 +6217,7 @@
         <v>32721</v>
       </c>
     </row>
-    <row r="28" spans="2:6" s="23" customFormat="1" ht="21">
+    <row r="28" spans="2:6" s="23" customFormat="1" ht="20.7">
       <c r="B28" s="23">
         <v>14</v>
       </c>
@@ -6231,7 +6231,7 @@
         <v>33055</v>
       </c>
     </row>
-    <row r="29" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="29" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B29" s="7">
         <v>15</v>
       </c>
@@ -6245,7 +6245,7 @@
         <v>33451</v>
       </c>
     </row>
-    <row r="30" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="30" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B30" s="7">
         <v>16</v>
       </c>
@@ -6259,7 +6259,7 @@
         <v>33725</v>
       </c>
     </row>
-    <row r="31" spans="2:6" s="7" customFormat="1" ht="21">
+    <row r="31" spans="2:6" s="7" customFormat="1" ht="20.7">
       <c r="B31" s="7">
         <v>17</v>
       </c>
@@ -6273,7 +6273,7 @@
         <v>34121</v>
       </c>
     </row>
-    <row r="32" spans="2:6" s="23" customFormat="1" ht="21">
+    <row r="32" spans="2:6" s="23" customFormat="1" ht="20.7">
       <c r="B32" s="23">
         <v>18</v>
       </c>
@@ -6303,12 +6303,12 @@
       <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="4" max="4" width="41" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" ht="21.5">
+    <row r="4" spans="1:6" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>227</v>
       </c>
@@ -6364,7 +6364,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="7" customFormat="1" ht="21">
+    <row r="15" spans="1:6" s="7" customFormat="1" ht="20.7">
       <c r="B15" s="7">
         <v>1</v>
       </c>
@@ -6375,7 +6375,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="23" customFormat="1" ht="21">
+    <row r="16" spans="1:6" s="23" customFormat="1" ht="20.7">
       <c r="B16" s="23">
         <v>5</v>
       </c>
@@ -6386,7 +6386,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B17" s="7">
         <v>6</v>
       </c>
@@ -6397,7 +6397,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B18" s="7">
         <v>7</v>
       </c>
@@ -6408,7 +6408,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>8</v>
       </c>
@@ -6419,7 +6419,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="20" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B20" s="7">
         <v>9</v>
       </c>
@@ -6430,7 +6430,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="21" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B21" s="7">
         <v>10</v>
       </c>
@@ -6441,7 +6441,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="22" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7">
         <v>11</v>
       </c>
@@ -6452,7 +6452,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="21">
+    <row r="23" spans="2:4" ht="20.7">
       <c r="B23" s="7">
         <v>12</v>
       </c>
@@ -6463,7 +6463,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="21">
+    <row r="24" spans="2:4" ht="20.7">
       <c r="B24" s="7">
         <v>14</v>
       </c>
@@ -6474,7 +6474,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="26" spans="2:4" ht="21">
+    <row r="26" spans="2:4" ht="20.7">
       <c r="B26" s="7">
         <v>16</v>
       </c>
@@ -6501,15 +6501,15 @@
       <selection activeCell="F47" sqref="F47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="31.08984375" customWidth="1"/>
-    <col min="2" max="3" width="8.7265625" customWidth="1"/>
+    <col min="1" max="1" width="31.05859375" customWidth="1"/>
+    <col min="2" max="3" width="8.703125" customWidth="1"/>
     <col min="4" max="4" width="57" customWidth="1"/>
-    <col min="5" max="5" width="40.90625" customWidth="1"/>
+    <col min="5" max="5" width="40.87890625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -6584,12 +6584,12 @@
         <v>45</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="22" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="23" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="23" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B23" s="7">
         <v>71</v>
       </c>
@@ -6597,7 +6597,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="24" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="24" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B24" s="7">
         <v>76</v>
       </c>
@@ -6605,7 +6605,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="25" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="25" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>77</v>
       </c>
@@ -6613,7 +6613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="26" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="26" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B26" s="7">
         <v>84</v>
       </c>
@@ -6621,7 +6621,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="27" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="27" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B27" s="7">
         <v>85</v>
       </c>
@@ -6629,7 +6629,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="28" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B28" s="7">
         <v>86</v>
       </c>
@@ -6637,7 +6637,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="29" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B29" s="7">
         <v>87</v>
       </c>
@@ -6645,7 +6645,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="30" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="30" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B30" s="7">
         <v>92</v>
       </c>
@@ -6653,7 +6653,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="31" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B31" s="7">
         <v>93</v>
       </c>
@@ -6661,7 +6661,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="32" spans="1:4" ht="21">
+    <row r="32" spans="1:4" ht="20.7">
       <c r="B32" s="7">
         <v>95</v>
       </c>
@@ -6670,7 +6670,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="33" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B33" s="7">
         <v>101</v>
       </c>
@@ -6678,7 +6678,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="24" customFormat="1" ht="21">
+    <row r="34" spans="1:5" s="24" customFormat="1" ht="20.7">
       <c r="B34" s="23">
         <v>106</v>
       </c>
@@ -6687,7 +6687,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="22" customFormat="1" ht="21">
+    <row r="35" spans="1:5" s="22" customFormat="1" ht="20.7">
       <c r="B35" s="21">
         <v>107</v>
       </c>
@@ -6696,7 +6696,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="36" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B36" s="7">
         <v>108</v>
       </c>
@@ -6704,7 +6704,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="37" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B37" s="7">
         <v>110</v>
       </c>
@@ -6715,7 +6715,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="38" spans="1:5" ht="21">
+    <row r="38" spans="1:5" ht="20.7">
       <c r="B38" s="7">
         <v>112</v>
       </c>
@@ -6726,7 +6726,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="22" customFormat="1" ht="21">
+    <row r="39" spans="1:5" s="22" customFormat="1" ht="20.7">
       <c r="B39" s="21">
         <v>117</v>
       </c>
@@ -6737,7 +6737,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="40" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B40" s="7">
         <v>122</v>
       </c>
@@ -6748,7 +6748,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="41" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B41" s="7">
         <v>125</v>
       </c>
@@ -6760,8 +6760,8 @@
       </c>
       <c r="E41" s="21"/>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1" ht="21"/>
-    <row r="44" spans="1:5" ht="21.5">
+    <row r="42" spans="1:5" s="7" customFormat="1" ht="20.7"/>
+    <row r="44" spans="1:5" ht="21.35">
       <c r="A44" s="1" t="s">
         <v>277</v>
       </c>
@@ -6804,7 +6804,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="54" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="54" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B54" s="7">
         <v>1</v>
       </c>
@@ -6812,7 +6812,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="55" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="55" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B55" s="7">
         <v>2</v>
       </c>
@@ -6820,7 +6820,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="56" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="56" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B56" s="7">
         <v>3</v>
       </c>
@@ -6828,7 +6828,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="57" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="57" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="B57" s="23">
         <v>4</v>
       </c>
@@ -6839,7 +6839,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="58" spans="1:5" s="21" customFormat="1" ht="21">
+    <row r="58" spans="1:5" s="21" customFormat="1" ht="20.7">
       <c r="B58" s="21">
         <v>5</v>
       </c>
@@ -6850,7 +6850,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="59" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="59" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B59" s="7">
         <v>6</v>
       </c>
@@ -6861,7 +6861,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="60" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="60" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B60" s="7">
         <v>7</v>
       </c>
@@ -6872,7 +6872,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="61" spans="1:5" s="7" customFormat="1" ht="21">
+    <row r="61" spans="1:5" s="7" customFormat="1" ht="20.7">
       <c r="B61" s="7">
         <v>8</v>
       </c>
@@ -6883,7 +6883,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="62" spans="1:5" s="23" customFormat="1" ht="21">
+    <row r="62" spans="1:5" s="23" customFormat="1" ht="20.7">
       <c r="B62" s="23">
         <v>9</v>
       </c>
@@ -6911,13 +6911,13 @@
       <selection activeCell="A33" sqref="A33:XFD35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="1" max="1" width="26.1796875" customWidth="1"/>
-    <col min="4" max="4" width="64.54296875" customWidth="1"/>
+    <col min="1" max="1" width="26.17578125" customWidth="1"/>
+    <col min="4" max="4" width="64.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:1" ht="21.5">
+    <row r="4" spans="1:1" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>62</v>
       </c>
@@ -6967,7 +6967,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B17" s="7" t="s">
         <v>14</v>
       </c>
@@ -6975,7 +6975,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B18" s="7">
         <v>1</v>
       </c>
@@ -6986,7 +6986,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>35</v>
       </c>
@@ -6997,7 +6997,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="21" customFormat="1" ht="21">
+    <row r="20" spans="2:4" s="21" customFormat="1" ht="20.7">
       <c r="B20" s="21">
         <v>36</v>
       </c>
@@ -7008,7 +7008,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="21" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B21" s="7">
         <v>37</v>
       </c>
@@ -7019,7 +7019,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="22" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B22" s="7">
         <v>59</v>
       </c>
@@ -7030,7 +7030,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="23" spans="2:4" ht="21">
+    <row r="23" spans="2:4" ht="20.7">
       <c r="B23" s="7">
         <v>61</v>
       </c>
@@ -7041,7 +7041,7 @@
         <v>340</v>
       </c>
     </row>
-    <row r="24" spans="2:4" ht="21">
+    <row r="24" spans="2:4" ht="20.7">
       <c r="B24" s="7">
         <v>71</v>
       </c>
@@ -7052,7 +7052,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="25" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>72</v>
       </c>
@@ -7063,7 +7063,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="26" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B26" s="7">
         <v>75</v>
       </c>
@@ -7074,7 +7074,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="27" spans="2:4" s="22" customFormat="1" ht="21">
+    <row r="27" spans="2:4" s="22" customFormat="1" ht="20.7">
       <c r="B27" s="21">
         <v>76</v>
       </c>
@@ -7085,7 +7085,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="28" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B28" s="7">
         <v>78</v>
       </c>
@@ -7096,7 +7096,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="29" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="29" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B29" s="7">
         <v>81</v>
       </c>
@@ -7107,7 +7107,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="30" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B30" s="7">
         <v>82</v>
       </c>
@@ -7118,7 +7118,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="31" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="31" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B31" s="7">
         <v>83</v>
       </c>
@@ -7129,7 +7129,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="32" spans="2:4" ht="21">
+    <row r="32" spans="2:4" ht="20.7">
       <c r="B32" s="7">
         <v>87</v>
       </c>
@@ -7140,7 +7140,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="36" spans="1:4" ht="21.5">
+    <row r="36" spans="1:4" ht="21.35">
       <c r="A36" s="1" t="s">
         <v>365</v>
       </c>
@@ -7188,7 +7188,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="47" spans="1:4" s="7" customFormat="1" ht="21">
+    <row r="47" spans="1:4" s="7" customFormat="1" ht="20.7">
       <c r="B47" s="7" t="s">
         <v>14</v>
       </c>
@@ -7196,7 +7196,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" s="21" customFormat="1" ht="21">
+    <row r="48" spans="1:4" s="21" customFormat="1" ht="20.7">
       <c r="B48" s="21">
         <v>1</v>
       </c>
@@ -7207,7 +7207,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="49" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="49" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B49" s="7">
         <v>2</v>
       </c>
@@ -7235,12 +7235,12 @@
       <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
-    <col min="4" max="4" width="46.36328125" customWidth="1"/>
+    <col min="4" max="4" width="46.3515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:3" ht="21.5">
+    <row r="4" spans="1:3" ht="21.35">
       <c r="A4" s="1" t="s">
         <v>316</v>
       </c>
@@ -7285,7 +7285,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="7" customFormat="1" ht="21">
+    <row r="16" spans="1:3" s="7" customFormat="1" ht="20.7">
       <c r="B16" s="7" t="s">
         <v>14</v>
       </c>
@@ -7293,7 +7293,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="17" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B17" s="7">
         <v>1</v>
       </c>
@@ -7304,7 +7304,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="18" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="18" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B18" s="23">
         <v>44</v>
       </c>
@@ -7315,7 +7315,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="19" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="19" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B19" s="7">
         <v>45</v>
       </c>
@@ -7326,7 +7326,7 @@
         <v>323</v>
       </c>
     </row>
-    <row r="20" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="20" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B20" s="23">
         <v>48</v>
       </c>
@@ -7337,7 +7337,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="21" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="21" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B21" s="7">
         <v>49</v>
       </c>
@@ -7348,7 +7348,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="22" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="22" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B22" s="23">
         <v>53</v>
       </c>
@@ -7359,7 +7359,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="23" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="23" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B23" s="7">
         <v>55</v>
       </c>
@@ -7370,7 +7370,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="24" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="24" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B24" s="23">
         <v>56</v>
       </c>
@@ -7381,7 +7381,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="25" spans="2:4" s="7" customFormat="1" ht="21">
+    <row r="25" spans="2:4" s="7" customFormat="1" ht="20.7">
       <c r="B25" s="7">
         <v>57</v>
       </c>
@@ -7392,7 +7392,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="26" spans="2:4" s="21" customFormat="1" ht="21">
+    <row r="26" spans="2:4" s="21" customFormat="1" ht="20.7">
       <c r="B26" s="21">
         <v>71</v>
       </c>
@@ -7403,7 +7403,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="27" spans="2:4" ht="21">
+    <row r="27" spans="2:4" ht="20.7">
       <c r="B27" s="7">
         <v>75</v>
       </c>
@@ -7414,7 +7414,7 @@
         <v>331</v>
       </c>
     </row>
-    <row r="28" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="28" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B28" s="23">
         <v>76</v>
       </c>
@@ -7425,7 +7425,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="29" spans="2:4" ht="21">
+    <row r="29" spans="2:4" ht="20.7">
       <c r="B29" s="7">
         <v>79</v>
       </c>
@@ -7436,7 +7436,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="30" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="30" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B30" s="23">
         <v>80</v>
       </c>
@@ -7447,7 +7447,7 @@
         <v>334</v>
       </c>
     </row>
-    <row r="31" spans="2:4" ht="21">
+    <row r="31" spans="2:4" ht="20.7">
       <c r="B31" s="7">
         <v>83</v>
       </c>
@@ -7458,7 +7458,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="32" spans="2:4" s="23" customFormat="1" ht="21">
+    <row r="32" spans="2:4" s="23" customFormat="1" ht="20.7">
       <c r="B32" s="23">
         <v>85</v>
       </c>
